--- a/data/best_models_temp.xlsx
+++ b/data/best_models_temp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,43 +387,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anthocharis cardamines</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C2">
-        <v>148.8154276099698</v>
+        <v>123.532423297014</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6158214437205242</v>
+        <v>0.1137440567649038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anthocharis cardamines</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C3">
-        <v>150.7057007400317</v>
+        <v>123.7970468087037</v>
       </c>
       <c r="D3">
-        <v>1.890273130061814</v>
+        <v>0.2646235116896349</v>
       </c>
       <c r="E3">
-        <v>0.239324528903901</v>
+        <v>0.09964750935329912</v>
       </c>
     </row>
     <row r="4">
@@ -434,17 +434,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C4">
-        <v>322.6893511342938</v>
+        <v>124.379482148245</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.8470588512309405</v>
       </c>
       <c r="E4">
-        <v>0.5104466079166986</v>
+        <v>0.07447186347923059</v>
       </c>
     </row>
     <row r="5">
@@ -455,653 +455,653 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C5">
-        <v>323.8675820077959</v>
+        <v>124.9887100560168</v>
       </c>
       <c r="D5">
-        <v>1.178230873502173</v>
+        <v>1.456286759002765</v>
       </c>
       <c r="E5">
-        <v>0.2832048840362622</v>
+        <v>0.05491614737874512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aporia crataegi</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C6">
-        <v>297.1473909828255</v>
+        <v>125.2482834344609</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.715860137446867</v>
       </c>
       <c r="E6">
-        <v>0.9755764844199594</v>
+        <v>0.04823190538506218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arethusana arethusa</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C7">
-        <v>29.60228665814155</v>
+        <v>125.3631613455971</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.830738048583015</v>
       </c>
       <c r="E7">
-        <v>0.2859448094583585</v>
+        <v>0.04553957754187703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arethusana arethusa</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C8">
-        <v>29.75781781602494</v>
+        <v>125.5611736692297</v>
       </c>
       <c r="D8">
-        <v>0.155531157883388</v>
+        <v>2.02875037221564</v>
       </c>
       <c r="E8">
-        <v>0.2645507857105217</v>
+        <v>0.04124688612850926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Arethusana arethusa</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C9">
-        <v>32.36976401179157</v>
+        <v>125.5847315459327</v>
       </c>
       <c r="D9">
-        <v>2.767477353650023</v>
+        <v>2.052308248918635</v>
       </c>
       <c r="E9">
-        <v>0.07166913218514059</v>
+        <v>0.04076389176437327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Arethusana arethusa</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C10">
-        <v>33.22514586514776</v>
+        <v>126.1652205094512</v>
       </c>
       <c r="D10">
-        <v>3.622859207006208</v>
+        <v>2.632797212437168</v>
       </c>
       <c r="E10">
-        <v>0.04672919896404347</v>
+        <v>0.03049467877585301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argynnis pandora</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C11">
-        <v>525.15938809596</v>
+        <v>126.2033751552559</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.670951858241878</v>
       </c>
       <c r="E11">
-        <v>0.9999783869887096</v>
+        <v>0.02991843600334404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aricia montensis</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C12">
-        <v>344.7085734656192</v>
+        <v>126.3932610386489</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.860837741634839</v>
       </c>
       <c r="E12">
-        <v>0.4976221776671472</v>
+        <v>0.0272085683735236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aricia montensis</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C13">
-        <v>345.1399356829533</v>
+        <v>126.4255242485443</v>
       </c>
       <c r="D13">
-        <v>0.43136221733414</v>
+        <v>2.893100951530272</v>
       </c>
       <c r="E13">
-        <v>0.4010796359702389</v>
+        <v>0.0267731717622428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C14">
-        <v>480.6051447246559</v>
+        <v>126.4976664095649</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.965243112550837</v>
       </c>
       <c r="E14">
-        <v>0.5542694119699952</v>
+        <v>0.02582464457204964</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C15">
-        <v>482.4268600124224</v>
+        <v>126.6504518413278</v>
       </c>
       <c r="D15">
-        <v>1.821715287766438</v>
+        <v>3.118028544313745</v>
       </c>
       <c r="E15">
-        <v>0.2229156007507788</v>
+        <v>0.02392530142698197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C16">
-        <v>483.0535217063655</v>
+        <v>126.6977218737203</v>
       </c>
       <c r="D16">
-        <v>2.448376981709544</v>
+        <v>3.165298576706235</v>
       </c>
       <c r="E16">
-        <v>0.1629530921028359</v>
+        <v>0.02336645670689154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chazara briseis</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C17">
-        <v>171.7626555692925</v>
+        <v>126.8984347046795</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.366011407665411</v>
       </c>
       <c r="E17">
-        <v>0.9085746820728955</v>
+        <v>0.02113531006105132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Coenonympha dorus</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C18">
-        <v>134.0433861231494</v>
+        <v>126.9038114937203</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3.371388196706263</v>
       </c>
       <c r="E18">
-        <v>0.8063967603906405</v>
+        <v>0.0210785663182554</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cupido lorquinii</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C19">
-        <v>134.426639663267</v>
+        <v>126.9407183693965</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3.408295072382472</v>
       </c>
       <c r="E19">
-        <v>0.9921365982010889</v>
+        <v>0.02069316126582339</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Erebia hispania</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Nov_pre</t>
         </is>
       </c>
       <c r="C20">
-        <v>173.8230991295615</v>
+        <v>126.9676976649861</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3.435274367972028</v>
       </c>
       <c r="E20">
-        <v>0.7826571850202221</v>
+        <v>0.02041589214453837</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Erebia hispania</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C21">
-        <v>177.6428857490002</v>
+        <v>126.9813704153717</v>
       </c>
       <c r="D21">
-        <v>3.819786619438673</v>
+        <v>3.448947118357637</v>
       </c>
       <c r="E21">
-        <v>0.1159085441849619</v>
+        <v>0.02027679743946546</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C22">
-        <v>281.074904327432</v>
+        <v>127.090149512905</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.557726215890966</v>
       </c>
       <c r="E22">
-        <v>0.5464056451830424</v>
+        <v>0.01920340679052121</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C23">
-        <v>282.2909630851925</v>
+        <v>127.0955279431754</v>
       </c>
       <c r="D23">
-        <v>1.216058757760493</v>
+        <v>3.563104646161349</v>
       </c>
       <c r="E23">
-        <v>0.2974756166888907</v>
+        <v>0.0191518340744778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C24">
-        <v>285.0066573814449</v>
+        <v>127.1394300971958</v>
       </c>
       <c r="D24">
-        <v>3.931753054012859</v>
+        <v>3.607006800181736</v>
       </c>
       <c r="E24">
-        <v>0.07651487090001667</v>
+        <v>0.01873601126594555</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Anthocharis euphenoides</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C25">
-        <v>53.13812555337417</v>
+        <v>127.4263140145203</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3.893890717506267</v>
       </c>
       <c r="E25">
-        <v>0.1672444093961132</v>
+        <v>0.01623233839152479</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Aporia crataegi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C26">
-        <v>53.44133053021379</v>
+        <v>165.5671349480962</v>
       </c>
       <c r="D26">
-        <v>0.3032049768396234</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.1437181059487927</v>
+        <v>0.7764306630522961</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Aporia crataegi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C27">
-        <v>54.38780175921818</v>
+        <v>168.1802810113579</v>
       </c>
       <c r="D27">
-        <v>1.249676205844011</v>
+        <v>2.613146063261723</v>
       </c>
       <c r="E27">
-        <v>0.08953397560090028</v>
+        <v>0.210215734968287</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C28">
-        <v>54.94563607613092</v>
+        <v>320.1335750865841</v>
       </c>
       <c r="D28">
-        <v>1.807510522756751</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0.06774163682488656</v>
+        <v>0.1285149569292151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C29">
-        <v>55.52017153721164</v>
+        <v>320.3348808142759</v>
       </c>
       <c r="D29">
-        <v>2.382045983837472</v>
+        <v>0.2013057276918175</v>
       </c>
       <c r="E29">
-        <v>0.05082728312991765</v>
+        <v>0.1162092482187171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C30">
-        <v>55.52814239264903</v>
+        <v>320.501661921705</v>
       </c>
       <c r="D30">
-        <v>2.390016839274864</v>
+        <v>0.3680868351209483</v>
       </c>
       <c r="E30">
-        <v>0.05062511779212944</v>
+        <v>0.1069115520571097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C31">
-        <v>55.54305721198649</v>
+        <v>321.2168781964601</v>
       </c>
       <c r="D31">
-        <v>2.40493165861232</v>
+        <v>1.083303109876056</v>
       </c>
       <c r="E31">
-        <v>0.05024898976275848</v>
+        <v>0.07476828060497652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C32">
-        <v>56.32254090905626</v>
+        <v>322.1060001673132</v>
       </c>
       <c r="D32">
-        <v>3.184415355682091</v>
+        <v>1.972425080729124</v>
       </c>
       <c r="E32">
-        <v>0.03403020776963137</v>
+        <v>0.04793436855662109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C33">
-        <v>56.95843494961285</v>
+        <v>322.1382361720026</v>
       </c>
       <c r="D33">
-        <v>3.820309396238684</v>
+        <v>2.004661085418547</v>
       </c>
       <c r="E33">
-        <v>0.02476178590128704</v>
+        <v>0.04716795540842712</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C34">
-        <v>57.0083066325834</v>
+        <v>322.3562557793311</v>
       </c>
       <c r="D34">
-        <v>3.870181079209232</v>
+        <v>2.222680692747019</v>
       </c>
       <c r="E34">
-        <v>0.02415196473352621</v>
+        <v>0.04229652568296825</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fabriciana adippe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C35">
-        <v>57.1122544121264</v>
+        <v>322.9863375916183</v>
       </c>
       <c r="D35">
-        <v>3.974128858752238</v>
+        <v>2.852762505034207</v>
       </c>
       <c r="E35">
-        <v>0.02292875597974995</v>
+        <v>0.0308662712177182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1110,754 +1110,754 @@
         </is>
       </c>
       <c r="C36">
-        <v>375.0108075185616</v>
+        <v>322.999983798992</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2.866408712407974</v>
       </c>
       <c r="E36">
-        <v>0.3666331540622978</v>
+        <v>0.03065638430313127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C37">
-        <v>375.516890009051</v>
+        <v>323.2381280070106</v>
       </c>
       <c r="D37">
-        <v>0.5060824904894048</v>
+        <v>3.104552920426499</v>
       </c>
       <c r="E37">
-        <v>0.2846671271336542</v>
+        <v>0.02721501474505391</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C38">
-        <v>377.2301897572847</v>
+        <v>323.4932057986978</v>
       </c>
       <c r="D38">
-        <v>2.219382238723142</v>
+        <v>3.359630712113699</v>
       </c>
       <c r="E38">
-        <v>0.1208645683084288</v>
+        <v>0.02395626647458638</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C39">
-        <v>377.5166824380404</v>
+        <v>323.5801466563206</v>
       </c>
       <c r="D39">
-        <v>2.505874919478856</v>
+        <v>3.446571569736534</v>
       </c>
       <c r="E39">
-        <v>0.1047340529623665</v>
+        <v>0.02293718766712043</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C40">
-        <v>377.7195990828391</v>
+        <v>323.6331740454303</v>
       </c>
       <c r="D40">
-        <v>2.708791564277533</v>
+        <v>3.499598958846207</v>
       </c>
       <c r="E40">
-        <v>0.09462918952311597</v>
+        <v>0.02233702944294464</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hesperia comma</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C41">
-        <v>239.0833222331687</v>
+        <v>323.703117302178</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3.56954221559397</v>
       </c>
       <c r="E41">
-        <v>0.9955378898088608</v>
+        <v>0.0215693685625915</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hipparchia fidia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C42">
-        <v>193.9779896020269</v>
+        <v>323.9131761549017</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3.779601068317618</v>
       </c>
       <c r="E42">
-        <v>0.8645985172948558</v>
+        <v>0.0194188600187937</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C43">
-        <v>385.7815599555047</v>
+        <v>324.0781497998934</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3.94457471330935</v>
       </c>
       <c r="E43">
-        <v>0.9734754871182324</v>
+        <v>0.017881344045378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C44">
-        <v>270.1365812628079</v>
+        <v>89.72118833164755</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.9996705170917251</v>
+        <v>0.2834276202111775</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C45">
-        <v>402.4334449135833</v>
+        <v>91.46953223499253</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1.748343903344974</v>
       </c>
       <c r="E45">
-        <v>0.4535340222145525</v>
+        <v>0.1182480847947084</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C46">
-        <v>403.0407937933329</v>
+        <v>91.55488983765403</v>
       </c>
       <c r="D46">
-        <v>0.6073488797496225</v>
+        <v>1.833701506006477</v>
       </c>
       <c r="E46">
-        <v>0.3347539714026282</v>
+        <v>0.1133075756767209</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C47">
-        <v>406.0750688535638</v>
+        <v>92.90090307997806</v>
       </c>
       <c r="D47">
-        <v>3.641623939980491</v>
+        <v>3.179714748330511</v>
       </c>
       <c r="E47">
-        <v>0.07342454778324818</v>
+        <v>0.05780639493134272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C48">
-        <v>406.2475315334603</v>
+        <v>93.60317672685379</v>
       </c>
       <c r="D48">
-        <v>3.814086619877003</v>
+        <v>3.881988395206236</v>
       </c>
       <c r="E48">
-        <v>0.0673583569944481</v>
+        <v>0.04068919528416303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hyponephele lycaon</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C49">
-        <v>399.3907998977764</v>
+        <v>179.1758855756349</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.3491767475662723</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lycaena alciphron</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C50">
-        <v>480.4914970283648</v>
+        <v>179.864017830168</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>0.688132254533059</v>
       </c>
       <c r="E50">
-        <v>0.9299309363538681</v>
+        <v>0.2475251286506142</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C51">
-        <v>350.193356758229</v>
+        <v>180.0544491834413</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.8785636078063987</v>
       </c>
       <c r="E51">
-        <v>0.4163177627916917</v>
+        <v>0.2250441106042595</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C52">
-        <v>351.5885561298271</v>
+        <v>181.361258300729</v>
       </c>
       <c r="D52">
-        <v>1.395199371598039</v>
+        <v>2.185372725094027</v>
       </c>
       <c r="E52">
-        <v>0.2072341131813095</v>
+        <v>0.1170840287513973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Fabriciana niobe</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C53">
-        <v>352.0103514230805</v>
+        <v>130.2249223145864</v>
       </c>
       <c r="D53">
-        <v>1.81699466485145</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.1678299877136649</v>
+        <v>0.4532416296235588</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Fabriciana niobe</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C54">
-        <v>354.0436186111814</v>
+        <v>130.4107370428924</v>
       </c>
       <c r="D54">
-        <v>3.850261852952428</v>
+        <v>0.1858147283060134</v>
       </c>
       <c r="E54">
-        <v>0.06072271800796513</v>
+        <v>0.4130290865037494</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Melanargia ines</t>
+          <t>Fabriciana niobe</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C55">
-        <v>83.47298781735223</v>
+        <v>132.7799897580545</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2.555067443468147</v>
       </c>
       <c r="E55">
-        <v>0.5137317041435315</v>
+        <v>0.1263292583728139</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Melanargia ines</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C56">
-        <v>85.38261685604358</v>
+        <v>101.8118335254517</v>
       </c>
       <c r="D56">
-        <v>1.909629038691349</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0.1977268699045405</v>
+        <v>0.3540203523485902</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Melanargia ines</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C57">
-        <v>86.35065650856471</v>
+        <v>103.3143080782808</v>
       </c>
       <c r="D57">
-        <v>2.877668691212477</v>
+        <v>1.502474552829156</v>
       </c>
       <c r="E57">
-        <v>0.1218592642574864</v>
+        <v>0.1670205949015177</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Melanargia lachesis</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C58">
-        <v>457.5413474184574</v>
+        <v>103.7821331756592</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1.970299650207565</v>
       </c>
       <c r="E58">
-        <v>0.9999837587976043</v>
+        <v>0.1321852805438331</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C59">
-        <v>119.9052502226654</v>
+        <v>104.8100222595398</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2.998188734088131</v>
       </c>
       <c r="E59">
-        <v>0.4047850325725638</v>
+        <v>0.07906418863691451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C60">
-        <v>121.5973464932816</v>
+        <v>105.3651538753016</v>
       </c>
       <c r="D60">
-        <v>1.692096270616176</v>
+        <v>3.553320349849955</v>
       </c>
       <c r="E60">
-        <v>0.1736962366330105</v>
+        <v>0.05990106167370825</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C61">
-        <v>122.1047578473701</v>
+        <v>176.5643554006892</v>
       </c>
       <c r="D61">
-        <v>2.199507624704708</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.1347744081678088</v>
+        <v>0.2308430816515005</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Melitaea athalia</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C62">
-        <v>85.87265779489495</v>
+        <v>177.8477420716009</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1.283386670911682</v>
       </c>
       <c r="E62">
-        <v>0.4393636418755096</v>
+        <v>0.1215158666573671</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Melitaea athalia</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C63">
-        <v>87.83235856002962</v>
+        <v>178.7044526447889</v>
       </c>
       <c r="D63">
-        <v>1.95970076513467</v>
+        <v>2.140097244099707</v>
       </c>
       <c r="E63">
-        <v>0.1649227246964709</v>
+        <v>0.07917729333774953</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Melitaea athalia</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C64">
-        <v>88.40264011589235</v>
+        <v>178.836779610052</v>
       </c>
       <c r="D64">
-        <v>2.529982320997405</v>
+        <v>2.272424209362839</v>
       </c>
       <c r="E64">
-        <v>0.1240067811859392</v>
+        <v>0.07410819165196374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Melitaea athalia</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C65">
-        <v>88.99186270173634</v>
+        <v>179.1502900571084</v>
       </c>
       <c r="D65">
-        <v>3.119204906841389</v>
+        <v>2.585934656419255</v>
       </c>
       <c r="E65">
-        <v>0.0923628607738371</v>
+        <v>0.06335607837605239</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C66">
-        <v>303.7232785990379</v>
+        <v>179.2929031670618</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2.7285477663726</v>
       </c>
       <c r="E66">
-        <v>0.2739703875976455</v>
+        <v>0.05899568444890063</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C67">
-        <v>306.2027119331746</v>
+        <v>179.9165448090411</v>
       </c>
       <c r="D67">
-        <v>2.479433334136672</v>
+        <v>3.352189408351933</v>
       </c>
       <c r="E67">
-        <v>0.07930517293763586</v>
+        <v>0.04319148957684628</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C68">
-        <v>306.2996620679441</v>
+        <v>180.5449439721456</v>
       </c>
       <c r="D68">
-        <v>2.576383468906215</v>
+        <v>3.980588571456394</v>
       </c>
       <c r="E68">
-        <v>0.07555253874285245</v>
+        <v>0.03154590838075185</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C69">
-        <v>306.5404781503347</v>
+        <v>225.5412403721629</v>
       </c>
       <c r="D69">
-        <v>2.817199551296824</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0.06698175376512105</v>
+        <v>0.1001175605646791</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C70">
-        <v>306.5537268389326</v>
+        <v>226.1012376035925</v>
       </c>
       <c r="D70">
-        <v>2.830448239894736</v>
+        <v>0.5599972314296053</v>
       </c>
       <c r="E70">
-        <v>0.0665395099712188</v>
+        <v>0.07566732925408468</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Dec_preJan</t>
         </is>
       </c>
       <c r="C71">
-        <v>306.9602018876492</v>
+        <v>226.4138484323727</v>
       </c>
       <c r="D71">
-        <v>3.236923288611308</v>
+        <v>0.8726080602098136</v>
       </c>
       <c r="E71">
-        <v>0.05430185463953387</v>
+        <v>0.06471811009334549</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1866,250 +1866,250 @@
         </is>
       </c>
       <c r="C72">
-        <v>307.3723673029359</v>
+        <v>226.8978231131271</v>
       </c>
       <c r="D72">
-        <v>3.64908870389803</v>
+        <v>1.356582740964228</v>
       </c>
       <c r="E72">
-        <v>0.04418899049075108</v>
+        <v>0.0508079953342447</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Melitaea deione</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C73">
-        <v>307.5245419764551</v>
+        <v>226.9381992695481</v>
       </c>
       <c r="D73">
-        <v>3.801263377417172</v>
+        <v>1.39695889738519</v>
       </c>
       <c r="E73">
-        <v>0.04095149581119521</v>
+        <v>0.04979256384297794</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C74">
-        <v>94.94679175227419</v>
+        <v>226.9547573385807</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1.413516966417802</v>
       </c>
       <c r="E74">
-        <v>0.1734203136004129</v>
+        <v>0.04938203123996698</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Dec_pre</t>
         </is>
       </c>
       <c r="C75">
-        <v>95.12670643795306</v>
+        <v>227.3595638912028</v>
       </c>
       <c r="D75">
-        <v>0.1799146856788667</v>
+        <v>1.818323519039922</v>
       </c>
       <c r="E75">
-        <v>0.1585009938170719</v>
+        <v>0.0403335384168788</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C76">
-        <v>95.82266996273948</v>
+        <v>227.5576963313886</v>
       </c>
       <c r="D76">
-        <v>0.875878210465288</v>
+        <v>2.016455959225652</v>
       </c>
       <c r="E76">
-        <v>0.111919414736763</v>
+        <v>0.03652938925023287</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C77">
-        <v>95.99757938211012</v>
+        <v>227.5893548407333</v>
       </c>
       <c r="D77">
-        <v>1.050787629835924</v>
+        <v>2.048114468570333</v>
       </c>
       <c r="E77">
-        <v>0.102547324181354</v>
+        <v>0.03595570869125381</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C78">
-        <v>96.93362145979749</v>
+        <v>227.6610668633941</v>
       </c>
       <c r="D78">
-        <v>1.986829707523299</v>
+        <v>2.119826491231208</v>
       </c>
       <c r="E78">
-        <v>0.06421927199678845</v>
+        <v>0.03468931989375926</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C79">
-        <v>97.21938069432912</v>
+        <v>227.6722951498994</v>
       </c>
       <c r="D79">
-        <v>2.272588942054924</v>
+        <v>2.131054777736466</v>
       </c>
       <c r="E79">
-        <v>0.05566901648977551</v>
+        <v>0.03449511474040443</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C80">
-        <v>97.225934729386</v>
+        <v>227.6736064968929</v>
       </c>
       <c r="D80">
-        <v>2.279142977111803</v>
+        <v>2.132366124730027</v>
       </c>
       <c r="E80">
-        <v>0.05548688673114182</v>
+        <v>0.03447250462113877</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C81">
-        <v>97.39840336454134</v>
+        <v>227.8215909618197</v>
       </c>
       <c r="D81">
-        <v>2.451611612267143</v>
+        <v>2.280350589656734</v>
       </c>
       <c r="E81">
-        <v>0.05090251842054448</v>
+        <v>0.03201388792554641</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C82">
-        <v>98.80315241368024</v>
+        <v>227.9833323495505</v>
       </c>
       <c r="D82">
-        <v>3.856360661406043</v>
+        <v>2.442091977387577</v>
       </c>
       <c r="E82">
-        <v>0.02521749187054735</v>
+        <v>0.02952682323609793</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Melitaea didyma</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C83">
-        <v>98.8263703943078</v>
+        <v>228.2473324760237</v>
       </c>
       <c r="D83">
-        <v>3.879578642033607</v>
+        <v>2.706092103860811</v>
       </c>
       <c r="E83">
-        <v>0.02492643495889011</v>
+        <v>0.02587556401997163</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2118,1300 +2118,1300 @@
         </is>
       </c>
       <c r="C84">
-        <v>56.50980832047296</v>
+        <v>228.2640445053897</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2.722804133226816</v>
       </c>
       <c r="E84">
-        <v>0.1124675687807919</v>
+        <v>0.0256602482707018</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C85">
-        <v>57.25942049792737</v>
+        <v>228.3007973206696</v>
       </c>
       <c r="D85">
-        <v>0.7496121774544093</v>
+        <v>2.759556948506656</v>
       </c>
       <c r="E85">
-        <v>0.07731274459398529</v>
+        <v>0.02519301130526387</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C86">
-        <v>57.47789053712603</v>
+        <v>228.3780672771061</v>
       </c>
       <c r="D86">
-        <v>0.9680822166530731</v>
+        <v>2.836826904943166</v>
       </c>
       <c r="E86">
-        <v>0.0693123980513223</v>
+        <v>0.02423824236021649</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C87">
-        <v>57.5056609890391</v>
+        <v>228.4991943535403</v>
       </c>
       <c r="D87">
-        <v>0.995852668566144</v>
+        <v>2.957953981377358</v>
       </c>
       <c r="E87">
-        <v>0.06835663062205651</v>
+        <v>0.02281385690778481</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C88">
-        <v>57.64949754697022</v>
+        <v>228.8385837115791</v>
       </c>
       <c r="D88">
-        <v>1.139689226497261</v>
+        <v>3.297343339416216</v>
       </c>
       <c r="E88">
-        <v>0.06361315504780359</v>
+        <v>0.01925312588993263</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C89">
-        <v>57.94009660997334</v>
+        <v>228.9210397266306</v>
       </c>
       <c r="D89">
-        <v>1.430288289500382</v>
+        <v>3.379799354467707</v>
       </c>
       <c r="E89">
-        <v>0.05501031746048488</v>
+        <v>0.01847549803883138</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C90">
-        <v>58.07249122596404</v>
+        <v>228.9639017235435</v>
       </c>
       <c r="D90">
-        <v>1.562682905491087</v>
+        <v>3.422661351380583</v>
       </c>
       <c r="E90">
-        <v>0.05148669629014178</v>
+        <v>0.01808376230599089</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C91">
-        <v>58.83193282134351</v>
+        <v>229.0013202142237</v>
       </c>
       <c r="D91">
-        <v>2.322124500870558</v>
+        <v>3.460079842060736</v>
       </c>
       <c r="E91">
-        <v>0.03521959670080514</v>
+        <v>0.01774857409682409</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C92">
-        <v>59.01185847748679</v>
+        <v>229.125662631684</v>
       </c>
       <c r="D92">
-        <v>2.502050157013834</v>
+        <v>3.584422259521034</v>
       </c>
       <c r="E92">
-        <v>0.0321894842805065</v>
+        <v>0.01667872527071354</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C93">
-        <v>59.20920033624057</v>
+        <v>229.2200358042541</v>
       </c>
       <c r="D93">
-        <v>2.699392015767614</v>
+        <v>3.678795432091221</v>
       </c>
       <c r="E93">
-        <v>0.02916498642343458</v>
+        <v>0.01590999272525539</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C94">
-        <v>59.27349512639874</v>
+        <v>229.2300050211113</v>
       </c>
       <c r="D94">
-        <v>2.763686805925779</v>
+        <v>3.688764648948364</v>
       </c>
       <c r="E94">
-        <v>0.02824231823181595</v>
+        <v>0.01583088496581547</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C95">
-        <v>59.3455075445159</v>
+        <v>229.3843865628974</v>
       </c>
       <c r="D95">
-        <v>2.835699224042948</v>
+        <v>3.843146190734473</v>
       </c>
       <c r="E95">
-        <v>0.02724350899071418</v>
+        <v>0.01465485977608506</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C96">
-        <v>59.35468710351773</v>
+        <v>229.3945756623895</v>
       </c>
       <c r="D96">
-        <v>2.844878783044777</v>
+        <v>3.853335290226568</v>
       </c>
       <c r="E96">
-        <v>0.02711875381000956</v>
+        <v>0.01458038972070427</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C97">
-        <v>59.64897760206262</v>
+        <v>229.5138967033392</v>
       </c>
       <c r="D97">
-        <v>3.139169281589666</v>
+        <v>3.972656331176267</v>
       </c>
       <c r="E97">
-        <v>0.02340805658909226</v>
+        <v>0.0137359562092672</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C98">
-        <v>59.6642696360072</v>
+        <v>198.9734555295865</v>
       </c>
       <c r="D98">
-        <v>3.154461315534242</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.02322976068649324</v>
+        <v>0.2114769957792972</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C99">
-        <v>59.84837044361465</v>
+        <v>200.1862727488734</v>
       </c>
       <c r="D99">
-        <v>3.338562123141692</v>
+        <v>1.212817219286876</v>
       </c>
       <c r="E99">
-        <v>0.02118691641676037</v>
+        <v>0.1153196244213817</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C100">
-        <v>59.86625871450259</v>
+        <v>200.8191259014307</v>
       </c>
       <c r="D100">
-        <v>3.356450394029636</v>
+        <v>1.845670371844164</v>
       </c>
       <c r="E100">
-        <v>0.02099826269655294</v>
+        <v>0.08403900528079213</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C101">
-        <v>59.95995483836494</v>
+        <v>201.1200849587235</v>
       </c>
       <c r="D101">
-        <v>3.45014651789198</v>
+        <v>2.14662942913705</v>
       </c>
       <c r="E101">
-        <v>0.02003722199561816</v>
+        <v>0.07229836472527758</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C102">
-        <v>60.17242167602785</v>
+        <v>201.2610831299049</v>
       </c>
       <c r="D102">
-        <v>3.662613355554896</v>
+        <v>2.287627600318388</v>
       </c>
       <c r="E102">
-        <v>0.01801776516525636</v>
+        <v>0.0673769132198898</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C103">
-        <v>60.18507195688763</v>
+        <v>201.42276449305</v>
       </c>
       <c r="D103">
-        <v>3.67526363641467</v>
+        <v>2.449308963463494</v>
       </c>
       <c r="E103">
-        <v>0.01790415993362912</v>
+        <v>0.06214446429007365</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C104">
-        <v>60.19170728984385</v>
+        <v>201.8102257801409</v>
       </c>
       <c r="D104">
-        <v>3.681898969370899</v>
+        <v>2.836770250554423</v>
       </c>
       <c r="E104">
-        <v>0.01784485832826657</v>
+        <v>0.05119956829607364</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C105">
-        <v>60.24629834513459</v>
+        <v>202.0646399057169</v>
       </c>
       <c r="D105">
-        <v>3.736490024661634</v>
+        <v>3.091184376130428</v>
       </c>
       <c r="E105">
-        <v>0.01736436105014625</v>
+        <v>0.04508384766704641</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C106">
-        <v>60.28227661956431</v>
+        <v>202.6291127585734</v>
       </c>
       <c r="D106">
-        <v>3.772468299091351</v>
+        <v>3.655657228986911</v>
       </c>
       <c r="E106">
-        <v>0.0170547840367023</v>
+        <v>0.03399752103002306</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C107">
-        <v>60.38020800102553</v>
+        <v>202.9165602325519</v>
       </c>
       <c r="D107">
-        <v>3.870399680552573</v>
+        <v>3.943104702965371</v>
       </c>
       <c r="E107">
-        <v>0.01623980069697012</v>
+        <v>0.02944617068847135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C108">
-        <v>60.43089533850132</v>
+        <v>536.6897979080303</v>
       </c>
       <c r="D108">
-        <v>3.921087018028366</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0.01583339621069315</v>
+        <v>0.4122264361887674</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Melitaea parthenoides</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C109">
-        <v>60.50630957454828</v>
+        <v>538.0261762360765</v>
       </c>
       <c r="D109">
-        <v>3.996501254075326</v>
+        <v>1.33637832804618</v>
       </c>
       <c r="E109">
-        <v>0.01524748048861496</v>
+        <v>0.2113221268311554</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C110">
-        <v>318.4134041352295</v>
+        <v>538.7388174955166</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>2.049019587486328</v>
       </c>
       <c r="E110">
-        <v>0.9956015210265203</v>
+        <v>0.1479779101720598</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C111">
-        <v>160.1793223812995</v>
+        <v>540.6726948370658</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>3.982896929035519</v>
       </c>
       <c r="E111">
-        <v>0.3833314749994197</v>
+        <v>0.05626790695307011</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Lycaena alciphron</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C112">
-        <v>161.8392245066866</v>
+        <v>356.8052645536908</v>
       </c>
       <c r="D112">
-        <v>1.659902125387106</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0.1671595962383066</v>
+        <v>0.6564513042351584</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Lycaena alciphron</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C113">
-        <v>162.2732577956998</v>
+        <v>360.0415618476931</v>
       </c>
       <c r="D113">
-        <v>2.093935414400278</v>
+        <v>3.23629729400227</v>
       </c>
       <c r="E113">
-        <v>0.1345495291399748</v>
+        <v>0.1301515927512022</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C114">
-        <v>162.9705782497942</v>
+        <v>137.3445684345232</v>
       </c>
       <c r="D114">
-        <v>2.791255868494659</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>0.09494256697298996</v>
+        <v>0.1515484285488173</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C115">
-        <v>163.3681628425755</v>
+        <v>138.1378226308702</v>
       </c>
       <c r="D115">
-        <v>3.188840461275959</v>
+        <v>0.7932541963469646</v>
       </c>
       <c r="E115">
-        <v>0.07782633376726551</v>
+        <v>0.1019291675312386</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Parnassius apollo</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C116">
-        <v>393.3522957412792</v>
+        <v>139.1245392588082</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1.779970824284931</v>
       </c>
       <c r="E116">
-        <v>0.999196000271285</v>
+        <v>0.06223514187491098</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Plebejus argus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C117">
-        <v>354.2429691347573</v>
+        <v>139.6839667647345</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2.33939833021131</v>
       </c>
       <c r="E117">
-        <v>0.999346713203042</v>
+        <v>0.04704977430734281</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Plebejus idas</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C118">
-        <v>248.1312622764819</v>
+        <v>139.9850193732667</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2.64045093874347</v>
       </c>
       <c r="E118">
-        <v>0.9994280145228053</v>
+        <v>0.04047480836435054</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Polyommatus amandus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C119">
-        <v>119.9658167354353</v>
+        <v>140.1795422725217</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>2.83497383799849</v>
       </c>
       <c r="E119">
-        <v>0.5325290231203221</v>
+        <v>0.03672355281371029</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Polyommatus amandus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C120">
-        <v>122.5179505064699</v>
+        <v>140.2663382218003</v>
       </c>
       <c r="D120">
-        <v>2.55213377103459</v>
+        <v>2.9217697872771</v>
       </c>
       <c r="E120">
-        <v>0.1486464271880492</v>
+        <v>0.03516391239356314</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Polyommatus escheri</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C121">
-        <v>195.7090778380127</v>
+        <v>140.2957821561092</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>2.951213721585958</v>
       </c>
       <c r="E121">
-        <v>0.7040619606669821</v>
+        <v>0.0346500224472568</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Polyommatus escheri</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C122">
-        <v>199.3836440279049</v>
+        <v>140.3736863877928</v>
       </c>
       <c r="D122">
-        <v>3.674566189892147</v>
+        <v>3.029117953269605</v>
       </c>
       <c r="E122">
-        <v>0.112121518491086</v>
+        <v>0.03332627942321591</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C123">
-        <v>40.0694387835747</v>
+        <v>140.528210542852</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>3.183642108328769</v>
       </c>
       <c r="E123">
-        <v>0.16226277073193</v>
+        <v>0.03084837825014983</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C124">
-        <v>40.60701658466469</v>
+        <v>140.5701430114771</v>
       </c>
       <c r="D124">
-        <v>0.537577801089995</v>
+        <v>3.225574576953818</v>
       </c>
       <c r="E124">
-        <v>0.1240181793045405</v>
+        <v>0.03020833699680454</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C125">
-        <v>40.74057315454939</v>
+        <v>140.8006460153718</v>
       </c>
       <c r="D125">
-        <v>0.6711343709746984</v>
+        <v>3.456077580848557</v>
       </c>
       <c r="E125">
-        <v>0.1160069237948286</v>
+        <v>0.02691991759952318</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C126">
-        <v>41.77982821778769</v>
+        <v>141.038380132505</v>
       </c>
       <c r="D126">
-        <v>1.710389434212992</v>
+        <v>3.693811697981801</v>
       </c>
       <c r="E126">
-        <v>0.06899419327301373</v>
+        <v>0.02390289031401221</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C127">
-        <v>42.25094523829479</v>
+        <v>141.076106771565</v>
       </c>
       <c r="D127">
-        <v>2.181506454720093</v>
+        <v>3.731538337041798</v>
       </c>
       <c r="E127">
-        <v>0.05451434267193429</v>
+        <v>0.02345622846330369</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C128">
-        <v>42.68489426361234</v>
+        <v>141.1356718711551</v>
       </c>
       <c r="D128">
-        <v>2.615455480037639</v>
+        <v>3.791103436631829</v>
       </c>
       <c r="E128">
-        <v>0.04388134657820351</v>
+        <v>0.02276794250162309</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C129">
-        <v>43.17879615984396</v>
+        <v>141.1794057148722</v>
       </c>
       <c r="D129">
-        <v>3.109357376269259</v>
+        <v>3.834837280349007</v>
       </c>
       <c r="E129">
-        <v>0.03427918691665667</v>
+        <v>0.02227548160687317</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C130">
-        <v>43.3309547479777</v>
+        <v>141.1823664175156</v>
       </c>
       <c r="D130">
-        <v>3.261515964403003</v>
+        <v>3.837797982992385</v>
       </c>
       <c r="E130">
-        <v>0.0317679868692865</v>
+        <v>0.02224253046388675</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Melanargia lachesis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Nov_pre</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C131">
-        <v>43.53209465111748</v>
+        <v>405.3778893014615</v>
       </c>
       <c r="D131">
-        <v>3.462655867542786</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0.02872848470301245</v>
+        <v>0.4931057346208028</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Melanargia lachesis</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C132">
-        <v>43.56056691619513</v>
+        <v>405.444642603274</v>
       </c>
       <c r="D132">
-        <v>3.491128132620432</v>
+        <v>0.06675330181246864</v>
       </c>
       <c r="E132">
-        <v>0.02832239958624342</v>
+        <v>0.4769191463379035</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C133">
-        <v>43.76052989976849</v>
+        <v>91.16626694680606</v>
       </c>
       <c r="D133">
-        <v>3.691091116193789</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>0.02562764123166067</v>
+        <v>0.2702619609177156</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C134">
-        <v>43.78577462803462</v>
+        <v>91.70332018221625</v>
       </c>
       <c r="D134">
-        <v>3.71633584445992</v>
+        <v>0.537053235410184</v>
       </c>
       <c r="E134">
-        <v>0.02530619279960434</v>
+        <v>0.2066166402060452</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C135">
-        <v>43.89357780734087</v>
+        <v>91.95058786979875</v>
       </c>
       <c r="D135">
-        <v>3.824139023766172</v>
+        <v>0.7843209229926913</v>
       </c>
       <c r="E135">
-        <v>0.02397825914436354</v>
+        <v>0.1825878181738963</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Polyommatus golgus</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C136">
-        <v>44.04981657528884</v>
+        <v>93.6405922131448</v>
       </c>
       <c r="D136">
-        <v>3.980377791714147</v>
+        <v>2.474325266338738</v>
       </c>
       <c r="E136">
-        <v>0.0221763890554833</v>
+        <v>0.07843177048789658</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Polyommatus nivescens</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C137">
-        <v>192.7382827747818</v>
+        <v>94.94101008066994</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>3.774743133863879</v>
       </c>
       <c r="E137">
-        <v>0.9877480987263155</v>
+        <v>0.04093642065313496</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pyronia bathseba</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C138">
-        <v>281.6579231085799</v>
+        <v>128.0759455512841</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <v>0.9717759076855975</v>
+        <v>0.1609968602905147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C139">
-        <v>108.2094278261674</v>
+        <v>129.2082625043125</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1.132316953028379</v>
       </c>
       <c r="E139">
-        <v>0.1143831036101174</v>
+        <v>0.09139825505528112</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C140">
-        <v>108.9078570110759</v>
+        <v>129.82281393471</v>
       </c>
       <c r="D140">
-        <v>0.6984291849085338</v>
+        <v>1.746868383425806</v>
       </c>
       <c r="E140">
-        <v>0.08066774295908698</v>
+        <v>0.06721864549591421</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C141">
-        <v>109.0233301463245</v>
+        <v>129.8803880736819</v>
       </c>
       <c r="D141">
-        <v>0.8139023201570836</v>
+        <v>1.80444252239775</v>
       </c>
       <c r="E141">
-        <v>0.0761421670733802</v>
+        <v>0.06531120422168132</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Nov_pre</t>
         </is>
       </c>
       <c r="C142">
-        <v>109.2090014685457</v>
+        <v>130.5965475553355</v>
       </c>
       <c r="D142">
-        <v>0.9995736423783086</v>
+        <v>2.520602004051312</v>
       </c>
       <c r="E142">
-        <v>0.06939165054552204</v>
+        <v>0.04565366376158546</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C143">
-        <v>110.1500656054274</v>
+        <v>130.7342793021828</v>
       </c>
       <c r="D143">
-        <v>1.940637779259973</v>
+        <v>2.658333750898663</v>
       </c>
       <c r="E143">
-        <v>0.04334686935287135</v>
+        <v>0.04261549791953343</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C144">
-        <v>110.3581492587304</v>
+        <v>130.9736889920928</v>
       </c>
       <c r="D144">
-        <v>2.148721432563022</v>
+        <v>2.897743440808625</v>
       </c>
       <c r="E144">
-        <v>0.0390636612885008</v>
+        <v>0.03780771351642088</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C145">
-        <v>110.5794979971367</v>
+        <v>131.3373562261123</v>
       </c>
       <c r="D145">
-        <v>2.370070170969299</v>
+        <v>3.261410674828113</v>
       </c>
       <c r="E145">
-        <v>0.03497096993304519</v>
+        <v>0.03152180492121404</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3420,1105 +3420,1903 @@
         </is>
       </c>
       <c r="C146">
-        <v>110.6354190620284</v>
+        <v>131.5126728189397</v>
       </c>
       <c r="D146">
-        <v>2.425991235860991</v>
+        <v>3.436727267655556</v>
       </c>
       <c r="E146">
-        <v>0.03400670647369311</v>
+        <v>0.02887630116059182</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C147">
-        <v>110.8166190045931</v>
+        <v>131.5665072461366</v>
       </c>
       <c r="D147">
-        <v>2.607191178425737</v>
+        <v>3.490561694852403</v>
       </c>
       <c r="E147">
-        <v>0.03106114816618617</v>
+        <v>0.02810939932800267</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C148">
-        <v>111.0586009177184</v>
+        <v>131.80394442173</v>
       </c>
       <c r="D148">
-        <v>2.849173091550966</v>
+        <v>3.727998870445873</v>
       </c>
       <c r="E148">
-        <v>0.02752148098685156</v>
+        <v>0.02496276783728679</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C149">
-        <v>111.0845025464874</v>
+        <v>131.8043867467268</v>
       </c>
       <c r="D149">
-        <v>2.875074720320001</v>
+        <v>3.728441195442684</v>
       </c>
       <c r="E149">
-        <v>0.02716735346452343</v>
+        <v>0.02495724761963984</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C150">
-        <v>111.1057747124861</v>
+        <v>131.861633362855</v>
       </c>
       <c r="D150">
-        <v>2.896346886318739</v>
+        <v>3.785687811570853</v>
       </c>
       <c r="E150">
-        <v>0.02687993047517248</v>
+        <v>0.02425301544032936</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C151">
-        <v>111.16174988984</v>
+        <v>131.8839054201196</v>
       </c>
       <c r="D151">
-        <v>2.952322063672582</v>
+        <v>3.807959868835411</v>
       </c>
       <c r="E151">
-        <v>0.02613805610032977</v>
+        <v>0.02398443142124177</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C152">
-        <v>111.1774852237443</v>
+        <v>131.8961796069131</v>
       </c>
       <c r="D152">
-        <v>2.968057397576956</v>
+        <v>3.820234055628902</v>
       </c>
       <c r="E152">
-        <v>0.02593321743797012</v>
+        <v>0.0238376874767671</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C153">
-        <v>111.3020161268879</v>
+        <v>131.9363843080807</v>
       </c>
       <c r="D153">
-        <v>3.09258830072055</v>
+        <v>3.860438756796526</v>
       </c>
       <c r="E153">
-        <v>0.02436771796174037</v>
+        <v>0.02336327827188043</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C154">
-        <v>111.3024274200972</v>
+        <v>131.9380455271597</v>
       </c>
       <c r="D154">
-        <v>3.09299959392979</v>
+        <v>3.862099975875537</v>
       </c>
       <c r="E154">
-        <v>0.02436270733850569</v>
+        <v>0.0233438805671482</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C155">
-        <v>111.3063209472332</v>
+        <v>132.0611800208937</v>
       </c>
       <c r="D155">
-        <v>3.096893121065776</v>
+        <v>3.985234469609594</v>
       </c>
       <c r="E155">
-        <v>0.02431532504346875</v>
+        <v>0.02195001073722226</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C156">
-        <v>111.3540101937075</v>
+        <v>71.03462309457092</v>
       </c>
       <c r="D156">
-        <v>3.14458236754011</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>0.02374239309765972</v>
+        <v>0.07500499975215241</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C157">
-        <v>111.3563683890849</v>
+        <v>71.27718993039684</v>
       </c>
       <c r="D157">
-        <v>3.146940562917536</v>
+        <v>0.2425668358259259</v>
       </c>
       <c r="E157">
-        <v>0.02371441499453355</v>
+        <v>0.06643814449081176</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C158">
-        <v>111.4244028988967</v>
+        <v>71.69749729675655</v>
       </c>
       <c r="D158">
-        <v>3.214975072729302</v>
+        <v>0.662874202185634</v>
       </c>
       <c r="E158">
-        <v>0.02292128227488395</v>
+        <v>0.05384543748178282</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C159">
-        <v>111.4280996310762</v>
+        <v>71.77806885934535</v>
       </c>
       <c r="D159">
-        <v>3.218671804908851</v>
+        <v>0.7434457647744352</v>
       </c>
       <c r="E159">
-        <v>0.02287895448466987</v>
+        <v>0.0517193451454472</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nov_pre</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C160">
-        <v>111.5962263613419</v>
+        <v>71.82401320979238</v>
       </c>
       <c r="D160">
-        <v>3.38679853517452</v>
+        <v>0.7893901152214653</v>
       </c>
       <c r="E160">
-        <v>0.02103429297698593</v>
+        <v>0.05054478207366462</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C161">
-        <v>111.7971039936496</v>
+        <v>72.0978462998995</v>
       </c>
       <c r="D161">
-        <v>3.587676167482229</v>
+        <v>1.063223205328583</v>
       </c>
       <c r="E161">
-        <v>0.01902426536063184</v>
+        <v>0.04407722336339792</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C162">
-        <v>111.8728438811811</v>
+        <v>72.20014059580733</v>
       </c>
       <c r="D162">
-        <v>3.663416055013741</v>
+        <v>1.165517501236408</v>
       </c>
       <c r="E162">
-        <v>0.01831728857629394</v>
+        <v>0.04187948228498105</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C163">
-        <v>112.0515250971665</v>
+        <v>72.44252831124943</v>
       </c>
       <c r="D163">
-        <v>3.842097270999147</v>
+        <v>1.407905216678515</v>
       </c>
       <c r="E163">
-        <v>0.01675178361068914</v>
+        <v>0.03709945080251768</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C164">
-        <v>112.1527766017725</v>
+        <v>72.46809235806852</v>
       </c>
       <c r="D164">
-        <v>3.943348775605102</v>
+        <v>1.433469263497599</v>
       </c>
       <c r="E164">
-        <v>0.01592482137124947</v>
+        <v>0.03662826253880283</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Pyronia cecilia</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C165">
-        <v>112.2021145182337</v>
+        <v>72.5093047613982</v>
       </c>
       <c r="D165">
-        <v>3.992686692066286</v>
+        <v>1.47468166682728</v>
       </c>
       <c r="E165">
-        <v>0.01553677860210619</v>
+        <v>0.03588121649873269</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dec_pre</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C166">
-        <v>247.6553483443807</v>
+        <v>72.52577937347772</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1.4911562789068</v>
       </c>
       <c r="E166">
-        <v>0.2825758125555942</v>
+        <v>0.03558686592959827</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C167">
-        <v>248.5778535232697</v>
+        <v>72.7174432838348</v>
       </c>
       <c r="D167">
-        <v>0.9225051788889971</v>
+        <v>1.682820189263879</v>
       </c>
       <c r="E167">
-        <v>0.1781621851847503</v>
+        <v>0.03233482038429297</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C168">
-        <v>248.8940318338918</v>
+        <v>72.83837575181145</v>
       </c>
       <c r="D168">
-        <v>1.238683489511118</v>
+        <v>1.803752657240537</v>
       </c>
       <c r="E168">
-        <v>0.1521101809399754</v>
+        <v>0.03043759268882285</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C169">
-        <v>250.4648428614756</v>
+        <v>72.88526451545513</v>
       </c>
       <c r="D169">
-        <v>2.809494517094919</v>
+        <v>1.850641420884216</v>
       </c>
       <c r="E169">
-        <v>0.06935232134312777</v>
+        <v>0.02973230200049679</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C170">
-        <v>250.9624006461943</v>
+        <v>72.96448330962625</v>
       </c>
       <c r="D170">
-        <v>3.307052301813656</v>
+        <v>1.929860215055328</v>
       </c>
       <c r="E170">
-        <v>0.05407763648366433</v>
+        <v>0.02857764209428406</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C171">
-        <v>250.9830383600061</v>
+        <v>73.2434423398997</v>
       </c>
       <c r="D171">
-        <v>3.327690015625393</v>
+        <v>2.208819245328783</v>
       </c>
       <c r="E171">
-        <v>0.05352248627473438</v>
+        <v>0.02485714290319897</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Satyrium esculi</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C172">
-        <v>92.25825436862543</v>
+        <v>73.28151180837074</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>2.246888713799819</v>
       </c>
       <c r="E172">
-        <v>0.4637098153716829</v>
+        <v>0.02438846849141844</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Satyrium esculi</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C173">
-        <v>93.86746178888232</v>
+        <v>73.34972617426961</v>
       </c>
       <c r="D173">
-        <v>1.609207420256894</v>
+        <v>2.315103079698687</v>
       </c>
       <c r="E173">
-        <v>0.2074012346047881</v>
+        <v>0.02357067217599382</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Satyrium esculi</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C174">
-        <v>95.13520411366591</v>
+        <v>73.36996709610997</v>
       </c>
       <c r="D174">
-        <v>2.876949745040477</v>
+        <v>2.335344001539056</v>
       </c>
       <c r="E174">
-        <v>0.110033414314186</v>
+        <v>0.02333332914559916</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C175">
-        <v>106.3782354047359</v>
+        <v>73.38291513818217</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>2.348292043611252</v>
       </c>
       <c r="E175">
-        <v>0.1324528402953178</v>
+        <v>0.02318275661265243</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C176">
-        <v>106.8127564820032</v>
+        <v>73.4350984811885</v>
       </c>
       <c r="D176">
-        <v>0.434521077267334</v>
+        <v>2.400475386617586</v>
       </c>
       <c r="E176">
-        <v>0.1065874868971545</v>
+        <v>0.02258570268134742</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Nov_pre</t>
         </is>
       </c>
       <c r="C177">
-        <v>107.2638868652951</v>
+        <v>73.44537967468366</v>
       </c>
       <c r="D177">
-        <v>0.8856514605592167</v>
+        <v>2.410756580112746</v>
       </c>
       <c r="E177">
-        <v>0.0850637460965048</v>
+        <v>0.02246989660279885</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C178">
-        <v>107.352841277397</v>
+        <v>73.46100620509162</v>
       </c>
       <c r="D178">
-        <v>0.9746058726610585</v>
+        <v>2.426383110520703</v>
       </c>
       <c r="E178">
-        <v>0.08136325216255598</v>
+        <v>0.02229501741990737</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>Dec_preJan</t>
         </is>
       </c>
       <c r="C179">
-        <v>108.2918332546641</v>
+        <v>73.62490384752095</v>
       </c>
       <c r="D179">
-        <v>1.913597849928166</v>
+        <v>2.590280752950036</v>
       </c>
       <c r="E179">
-        <v>0.05087785371192566</v>
+        <v>0.02054082559521048</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C180">
-        <v>108.4713839306947</v>
+        <v>73.64096127869868</v>
       </c>
       <c r="D180">
-        <v>2.093148525958796</v>
+        <v>2.606338184127765</v>
       </c>
       <c r="E180">
-        <v>0.04650930484608508</v>
+        <v>0.02037656941395982</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C181">
-        <v>109.1178821334119</v>
+        <v>73.71083605582569</v>
       </c>
       <c r="D181">
-        <v>2.739646728675964</v>
+        <v>2.676212961254777</v>
       </c>
       <c r="E181">
-        <v>0.03366313411643947</v>
+        <v>0.01967695775489081</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C182">
-        <v>109.1654024034125</v>
+        <v>73.80377874859293</v>
       </c>
       <c r="D182">
-        <v>2.787166998676582</v>
+        <v>2.769155654022015</v>
       </c>
       <c r="E182">
-        <v>0.0328727208531271</v>
+        <v>0.01878346473913334</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C183">
-        <v>109.3590908606233</v>
+        <v>73.90584044888597</v>
       </c>
       <c r="D183">
-        <v>2.980855455887365</v>
+        <v>2.87121735431505</v>
       </c>
       <c r="E183">
-        <v>0.02983848286829485</v>
+        <v>0.01784897524830095</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C184">
-        <v>109.5848542011634</v>
+        <v>74.00387173253482</v>
       </c>
       <c r="D184">
-        <v>3.206618796427477</v>
+        <v>2.969248637963901</v>
       </c>
       <c r="E184">
-        <v>0.0266534143754109</v>
+        <v>0.01699519157800602</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C185">
-        <v>109.7645463075217</v>
+        <v>74.07827302505873</v>
       </c>
       <c r="D185">
-        <v>3.386310902785823</v>
+        <v>3.043649930487817</v>
       </c>
       <c r="E185">
-        <v>0.02436313693043652</v>
+        <v>0.01637457471256898</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C186">
-        <v>109.8154400823976</v>
+        <v>74.65227573777574</v>
       </c>
       <c r="D186">
-        <v>3.437204677661683</v>
+        <v>3.617652643204821</v>
       </c>
       <c r="E186">
-        <v>0.02375099254416244</v>
+        <v>0.01228929370780257</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Dec_pre</t>
         </is>
       </c>
       <c r="C187">
-        <v>109.8860951592923</v>
+        <v>74.83720357264296</v>
       </c>
       <c r="D187">
-        <v>3.507859754556364</v>
+        <v>3.802580478072045</v>
       </c>
       <c r="E187">
-        <v>0.02292657647694196</v>
+        <v>0.01120392917125347</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Parnassius apollo</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C188">
-        <v>110.0601562186256</v>
+        <v>244.9604345363509</v>
       </c>
       <c r="D188">
-        <v>3.681920813889718</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0.02101562592784589</v>
+        <v>0.9962859255543638</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Plebejus argus</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C189">
-        <v>110.2276417833345</v>
+        <v>209.7206251806371</v>
       </c>
       <c r="D189">
-        <v>3.849406378598559</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>0.01932739405195361</v>
+        <v>0.7483486990477788</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C190">
-        <v>110.2840979806282</v>
+        <v>78.99129062369424</v>
       </c>
       <c r="D190">
-        <v>3.905862575892314</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>0.01878944680047737</v>
+        <v>0.3177203867923027</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Satyrium spini</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C191">
-        <v>110.3255576232442</v>
+        <v>80.52544616855833</v>
       </c>
       <c r="D191">
-        <v>3.947322218508248</v>
+        <v>1.534155544864092</v>
       </c>
       <c r="E191">
-        <v>0.01840395432545242</v>
+        <v>0.1475392049497897</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Satyrus actaea</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C192">
-        <v>652.8957132417454</v>
+        <v>80.69208332881306</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1.700792705118815</v>
       </c>
       <c r="E192">
-        <v>0.9855324102812861</v>
+        <v>0.1357446241065313</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Speyeria aglaja</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C193">
-        <v>64.12850699590695</v>
+        <v>81.78431861513901</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>2.793027991444774</v>
       </c>
       <c r="E193">
-        <v>0.4697821237620425</v>
+        <v>0.07862248391612006</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Speyeria aglaja</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C194">
-        <v>66.50719208051285</v>
+        <v>82.87515157361067</v>
       </c>
       <c r="D194">
-        <v>2.378685084605905</v>
+        <v>3.883860949916425</v>
       </c>
       <c r="E194">
-        <v>0.1430117047712224</v>
+        <v>0.04556961853194164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Speyeria aglaja</t>
+          <t>Polyommatus escheri</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C195">
-        <v>67.37082209851938</v>
+        <v>128.6139213107812</v>
       </c>
       <c r="D195">
-        <v>3.242315102612437</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>0.09286171670589397</v>
+        <v>0.3093364409324638</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Thymelicus sylvestris</t>
+          <t>Polyommatus escheri</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C196">
-        <v>251.8751376685147</v>
+        <v>129.0473689207269</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>0.4334476099457163</v>
       </c>
       <c r="E196">
-        <v>0.9751930841527393</v>
+        <v>0.2490629523547258</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Zerynthia rumina</t>
+          <t>Polyommatus escheri</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C197">
-        <v>116.8245785145609</v>
+        <v>129.6122688977352</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>0.9983475869539973</v>
       </c>
       <c r="E197">
-        <v>0.5043438573052352</v>
+        <v>0.1877771141962458</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Zerynthia rumina</t>
+          <t>Pyronia bathseba</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>89.6120587306395</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0.4757607482504205</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C199">
+        <v>91.66335271800259</v>
+      </c>
+      <c r="D199">
+        <v>2.051293987363081</v>
+      </c>
+      <c r="E199">
+        <v>0.1705908679250252</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C200">
+        <v>93.37654995533013</v>
+      </c>
+      <c r="D200">
+        <v>3.76449122469063</v>
+      </c>
+      <c r="E200">
+        <v>0.07243354246352893</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C201">
+        <v>92.9963922704318</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0.09252757549496511</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C202">
+        <v>94.33639642722741</v>
+      </c>
+      <c r="D202">
+        <v>1.340004156795615</v>
+      </c>
+      <c r="E202">
+        <v>0.04734705565644661</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C203">
+        <v>94.40840067758232</v>
+      </c>
+      <c r="D203">
+        <v>1.412008407150523</v>
+      </c>
+      <c r="E203">
+        <v>0.04567278060112968</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C204">
+        <v>94.67205944747867</v>
+      </c>
+      <c r="D204">
+        <v>1.675667177046876</v>
+      </c>
+      <c r="E204">
+        <v>0.04003175943812799</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C205">
+        <v>94.69482590857744</v>
+      </c>
+      <c r="D205">
+        <v>1.698433638145644</v>
+      </c>
+      <c r="E205">
+        <v>0.03957865249426044</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C206">
+        <v>94.69688694722043</v>
+      </c>
+      <c r="D206">
+        <v>1.700494676788637</v>
+      </c>
+      <c r="E206">
+        <v>0.03953788693660138</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C207">
+        <v>94.72221555431189</v>
+      </c>
+      <c r="D207">
+        <v>1.725823283880089</v>
+      </c>
+      <c r="E207">
+        <v>0.03904032442630658</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C208">
+        <v>94.77158268266173</v>
+      </c>
+      <c r="D208">
+        <v>1.775190412229932</v>
+      </c>
+      <c r="E208">
+        <v>0.03808846603022389</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C209">
+        <v>94.92456934481919</v>
+      </c>
+      <c r="D209">
+        <v>1.928177074387392</v>
+      </c>
+      <c r="E209">
+        <v>0.03528359681063335</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C210">
+        <v>94.94671037033157</v>
+      </c>
+      <c r="D210">
+        <v>1.950318099899775</v>
+      </c>
+      <c r="E210">
+        <v>0.03489514345822759</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C211">
+        <v>94.98333844089508</v>
+      </c>
+      <c r="D211">
+        <v>1.986946170463284</v>
+      </c>
+      <c r="E211">
+        <v>0.03426188899166181</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C212">
+        <v>95.09818073277927</v>
+      </c>
+      <c r="D212">
+        <v>2.101788462347471</v>
+      </c>
+      <c r="E212">
+        <v>0.03234995022729325</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C213">
+        <v>95.24000661124086</v>
+      </c>
+      <c r="D213">
+        <v>2.24361434080906</v>
+      </c>
+      <c r="E213">
+        <v>0.03013536934317994</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C214">
+        <v>95.25654595411072</v>
+      </c>
+      <c r="D214">
+        <v>2.260153683678922</v>
+      </c>
+      <c r="E214">
+        <v>0.0298871873463032</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Nov_preDec_preJan</t>
+        </is>
+      </c>
+      <c r="C215">
+        <v>95.37183666942562</v>
+      </c>
+      <c r="D215">
+        <v>2.375444398993821</v>
+      </c>
+      <c r="E215">
+        <v>0.02821304653530202</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Nov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C216">
+        <v>95.42669429811819</v>
+      </c>
+      <c r="D216">
+        <v>2.430302027686395</v>
+      </c>
+      <c r="E216">
+        <v>0.02744971264808922</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C217">
+        <v>95.4530613467188</v>
+      </c>
+      <c r="D217">
+        <v>2.456669076287</v>
+      </c>
+      <c r="E217">
+        <v>0.02709020369887294</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C218">
+        <v>95.47896454670808</v>
+      </c>
+      <c r="D218">
+        <v>2.482572276276287</v>
+      </c>
+      <c r="E218">
+        <v>0.02674160454810735</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C219">
+        <v>95.52114583727368</v>
+      </c>
+      <c r="D219">
+        <v>2.524753566841881</v>
+      </c>
+      <c r="E219">
+        <v>0.02618351279702897</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C220">
+        <v>95.56272983855196</v>
+      </c>
+      <c r="D220">
+        <v>2.566337568120161</v>
+      </c>
+      <c r="E220">
+        <v>0.02564472582177341</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C221">
+        <v>95.60161498237608</v>
+      </c>
+      <c r="D221">
+        <v>2.605222711944279</v>
+      </c>
+      <c r="E221">
+        <v>0.02515094216261662</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C222">
+        <v>95.60665854119536</v>
+      </c>
+      <c r="D222">
+        <v>2.61026627076356</v>
+      </c>
+      <c r="E222">
+        <v>0.02508759693944727</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C223">
+        <v>95.64205255006571</v>
+      </c>
+      <c r="D223">
+        <v>2.645660279633915</v>
+      </c>
+      <c r="E223">
+        <v>0.02464752706953736</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C224">
+        <v>95.78588374794559</v>
+      </c>
+      <c r="D224">
+        <v>2.789491477513792</v>
+      </c>
+      <c r="E224">
+        <v>0.02293722128764429</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C225">
+        <v>95.82460308619669</v>
+      </c>
+      <c r="D225">
+        <v>2.828210815764891</v>
+      </c>
+      <c r="E225">
+        <v>0.02249743506650575</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C226">
+        <v>95.90625961831569</v>
+      </c>
+      <c r="D226">
+        <v>2.909867347883889</v>
+      </c>
+      <c r="E226">
+        <v>0.02159740221446523</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C227">
+        <v>96.06208580530979</v>
+      </c>
+      <c r="D227">
+        <v>3.065693534877994</v>
+      </c>
+      <c r="E227">
+        <v>0.01997856494590208</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C228">
+        <v>96.13058501588412</v>
+      </c>
+      <c r="D228">
+        <v>3.134192745452324</v>
+      </c>
+      <c r="E228">
+        <v>0.01930589212605501</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C229">
+        <v>96.2903946426369</v>
+      </c>
+      <c r="D229">
+        <v>3.2940023722051</v>
+      </c>
+      <c r="E229">
+        <v>0.01782328106034295</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C230">
+        <v>96.34171675306365</v>
+      </c>
+      <c r="D230">
+        <v>3.345324482631852</v>
+      </c>
+      <c r="E230">
+        <v>0.01737173521038461</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>FebMar</t>
         </is>
       </c>
-      <c r="C198">
-        <v>117.6077427333453</v>
-      </c>
-      <c r="D198">
-        <v>0.7831642187843784</v>
-      </c>
-      <c r="E198">
-        <v>0.3409296607705151</v>
+      <c r="C231">
+        <v>96.43146174139416</v>
+      </c>
+      <c r="D231">
+        <v>3.435069470962361</v>
+      </c>
+      <c r="E231">
+        <v>0.01660945278333056</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C232">
+        <v>96.60738739234986</v>
+      </c>
+      <c r="D232">
+        <v>3.610995121918066</v>
+      </c>
+      <c r="E232">
+        <v>0.01521085248842004</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Satyrus actaea</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C233">
+        <v>554.4894440292181</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0.6506602985322339</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Satyrus actaea</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C234">
+        <v>555.9232192048632</v>
+      </c>
+      <c r="D234">
+        <v>1.43377517564511</v>
+      </c>
+      <c r="E234">
+        <v>0.3176976369775232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Thymelicus sylvestris</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C235">
+        <v>86.15747968747606</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0.4446644905534717</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Thymelicus sylvestris</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C236">
+        <v>89.67786165231178</v>
+      </c>
+      <c r="D236">
+        <v>3.520381964835721</v>
+      </c>
+      <c r="E236">
+        <v>0.07648763253621535</v>
       </c>
     </row>
   </sheetData>

--- a/data/best_models_temp.xlsx
+++ b/data/best_models_temp.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,280 +933,280 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Argynnis pandora</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C28">
-        <v>320.1335750865841</v>
+        <v>39.39696390395552</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.1285149569292151</v>
+        <v>0.7607399601075788</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Argynnis pandora</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C29">
-        <v>320.3348808142759</v>
+        <v>42.6465460408653</v>
       </c>
       <c r="D29">
-        <v>0.2013057276918175</v>
+        <v>3.24958213690978</v>
       </c>
       <c r="E29">
-        <v>0.1162092482187171</v>
+        <v>0.1498298808580779</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C30">
-        <v>320.501661921705</v>
+        <v>44.40256494939334</v>
       </c>
       <c r="D30">
-        <v>0.3680868351209483</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.1069115520571097</v>
+        <v>0.1297202600852662</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Dec_pre</t>
         </is>
       </c>
       <c r="C31">
-        <v>321.2168781964601</v>
+        <v>44.96030203268743</v>
       </c>
       <c r="D31">
-        <v>1.083303109876056</v>
+        <v>0.5577370832940858</v>
       </c>
       <c r="E31">
-        <v>0.07476828060497652</v>
+        <v>0.09815145499049631</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C32">
-        <v>322.1060001673132</v>
+        <v>45.44286350107408</v>
       </c>
       <c r="D32">
-        <v>1.972425080729124</v>
+        <v>1.040298551680735</v>
       </c>
       <c r="E32">
-        <v>0.04793436855662109</v>
+        <v>0.07710984861210361</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C33">
-        <v>322.1382361720026</v>
+        <v>45.5191473787305</v>
       </c>
       <c r="D33">
-        <v>2.004661085418547</v>
+        <v>1.116582429337157</v>
       </c>
       <c r="E33">
-        <v>0.04716795540842712</v>
+        <v>0.07422411309767707</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>Dec_preJan</t>
         </is>
       </c>
       <c r="C34">
-        <v>322.3562557793311</v>
+        <v>46.79558150532267</v>
       </c>
       <c r="D34">
-        <v>2.222680692747019</v>
+        <v>2.393016555929321</v>
       </c>
       <c r="E34">
-        <v>0.04229652568296825</v>
+        <v>0.03920765500403296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C35">
-        <v>322.9863375916183</v>
+        <v>46.83846002996088</v>
       </c>
       <c r="D35">
-        <v>2.852762505034207</v>
+        <v>2.435895080567541</v>
       </c>
       <c r="E35">
-        <v>0.0308662712177182</v>
+        <v>0.03837601849446855</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C36">
-        <v>322.999983798992</v>
+        <v>47.08223578738817</v>
       </c>
       <c r="D36">
-        <v>2.866408712407974</v>
+        <v>2.679670837994827</v>
       </c>
       <c r="E36">
-        <v>0.03065638430313127</v>
+        <v>0.03397227896209529</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C37">
-        <v>323.2381280070106</v>
+        <v>47.21523200995225</v>
       </c>
       <c r="D37">
-        <v>3.104552920426499</v>
+        <v>2.812667060558901</v>
       </c>
       <c r="E37">
-        <v>0.02721501474505391</v>
+        <v>0.03178666162794087</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C38">
-        <v>323.4932057986978</v>
+        <v>47.27211042289545</v>
       </c>
       <c r="D38">
-        <v>3.359630712113699</v>
+        <v>2.869545473502107</v>
       </c>
       <c r="E38">
-        <v>0.02395626647458638</v>
+        <v>0.03089540754318722</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C39">
-        <v>323.5801466563206</v>
+        <v>47.34052886270894</v>
       </c>
       <c r="D39">
-        <v>3.446571569736534</v>
+        <v>2.937963913315592</v>
       </c>
       <c r="E39">
-        <v>0.02293718766712043</v>
+        <v>0.02985637335426197</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C40">
-        <v>323.6331740454303</v>
+        <v>47.41658061131117</v>
       </c>
       <c r="D40">
-        <v>3.499598958846207</v>
+        <v>3.014015661917824</v>
       </c>
       <c r="E40">
-        <v>0.02233702944294464</v>
+        <v>0.0287423732977844</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1215,271 +1215,271 @@
         </is>
       </c>
       <c r="C41">
-        <v>323.703117302178</v>
+        <v>47.52501563362577</v>
       </c>
       <c r="D41">
-        <v>3.56954221559397</v>
+        <v>3.122450684232426</v>
       </c>
       <c r="E41">
-        <v>0.0215693685625915</v>
+        <v>0.0272255247798964</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C42">
-        <v>323.9131761549017</v>
+        <v>47.62323256425685</v>
       </c>
       <c r="D42">
-        <v>3.779601068317618</v>
+        <v>3.220667614863501</v>
       </c>
       <c r="E42">
-        <v>0.0194188600187937</v>
+        <v>0.02592081927923311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brintesia circe</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C43">
-        <v>324.0781497998934</v>
+        <v>47.81696725844642</v>
       </c>
       <c r="D43">
-        <v>3.94457471330935</v>
+        <v>3.414402309053074</v>
       </c>
       <c r="E43">
-        <v>0.017881344045378</v>
+        <v>0.02352771603365102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chazara briseis</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C44">
-        <v>89.72118833164755</v>
+        <v>47.87434978132697</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3.471784831933626</v>
       </c>
       <c r="E44">
-        <v>0.2834276202111775</v>
+        <v>0.0228622681006111</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chazara briseis</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C45">
-        <v>91.46953223499253</v>
+        <v>47.89237655172022</v>
       </c>
       <c r="D45">
-        <v>1.748343903344974</v>
+        <v>3.489811602326874</v>
       </c>
       <c r="E45">
-        <v>0.1182480847947084</v>
+        <v>0.02265712756589975</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chazara briseis</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C46">
-        <v>91.55488983765403</v>
+        <v>47.94109811882627</v>
       </c>
       <c r="D46">
-        <v>1.833701506006477</v>
+        <v>3.538533169432924</v>
       </c>
       <c r="E46">
-        <v>0.1133075756767209</v>
+        <v>0.0221118508353765</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chazara briseis</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C47">
-        <v>92.90090307997806</v>
+        <v>48.04193779199354</v>
       </c>
       <c r="D47">
-        <v>3.179714748330511</v>
+        <v>3.639372842600196</v>
       </c>
       <c r="E47">
-        <v>0.05780639493134272</v>
+        <v>0.02102461438931576</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chazara briseis</t>
+          <t>Aricia montensis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C48">
-        <v>93.60317672685379</v>
+        <v>48.10251228288308</v>
       </c>
       <c r="D48">
-        <v>3.881988395206236</v>
+        <v>3.699947333489732</v>
       </c>
       <c r="E48">
-        <v>0.04068919528416303</v>
+        <v>0.02039738323169862</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C49">
-        <v>179.1758855756349</v>
+        <v>320.1335750865841</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0.3491767475662723</v>
+        <v>0.1285149569292151</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C50">
-        <v>179.864017830168</v>
+        <v>320.3348808142759</v>
       </c>
       <c r="D50">
-        <v>0.688132254533059</v>
+        <v>0.2013057276918175</v>
       </c>
       <c r="E50">
-        <v>0.2475251286506142</v>
+        <v>0.1162092482187171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C51">
-        <v>180.0544491834413</v>
+        <v>320.501661921705</v>
       </c>
       <c r="D51">
-        <v>0.8785636078063987</v>
+        <v>0.3680868351209483</v>
       </c>
       <c r="E51">
-        <v>0.2250441106042595</v>
+        <v>0.1069115520571097</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Euphydryas aurinia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C52">
-        <v>181.361258300729</v>
+        <v>321.2168781964601</v>
       </c>
       <c r="D52">
-        <v>2.185372725094027</v>
+        <v>1.083303109876056</v>
       </c>
       <c r="E52">
-        <v>0.1170840287513973</v>
+        <v>0.07476828060497652</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C53">
-        <v>130.2249223145864</v>
+        <v>322.1060001673132</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1.972425080729124</v>
       </c>
       <c r="E53">
-        <v>0.4532416296235588</v>
+        <v>0.04793436855662109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1488,607 +1488,607 @@
         </is>
       </c>
       <c r="C54">
-        <v>130.4107370428924</v>
+        <v>322.1382361720026</v>
       </c>
       <c r="D54">
-        <v>0.1858147283060134</v>
+        <v>2.004661085418547</v>
       </c>
       <c r="E54">
-        <v>0.4130290865037494</v>
+        <v>0.04716795540842712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fabriciana niobe</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C55">
-        <v>132.7799897580545</v>
+        <v>322.3562557793311</v>
       </c>
       <c r="D55">
-        <v>2.555067443468147</v>
+        <v>2.222680692747019</v>
       </c>
       <c r="E55">
-        <v>0.1263292583728139</v>
+        <v>0.04229652568296825</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Hipparchia fidia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C56">
-        <v>101.8118335254517</v>
+        <v>322.9863375916183</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2.852762505034207</v>
       </c>
       <c r="E56">
-        <v>0.3540203523485902</v>
+        <v>0.0308662712177182</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Hipparchia fidia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C57">
-        <v>103.3143080782808</v>
+        <v>322.999983798992</v>
       </c>
       <c r="D57">
-        <v>1.502474552829156</v>
+        <v>2.866408712407974</v>
       </c>
       <c r="E57">
-        <v>0.1670205949015177</v>
+        <v>0.03065638430313127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hipparchia fidia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C58">
-        <v>103.7821331756592</v>
+        <v>323.2381280070106</v>
       </c>
       <c r="D58">
-        <v>1.970299650207565</v>
+        <v>3.104552920426499</v>
       </c>
       <c r="E58">
-        <v>0.1321852805438331</v>
+        <v>0.02721501474505391</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hipparchia fidia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C59">
-        <v>104.8100222595398</v>
+        <v>323.4932057986978</v>
       </c>
       <c r="D59">
-        <v>2.998188734088131</v>
+        <v>3.359630712113699</v>
       </c>
       <c r="E59">
-        <v>0.07906418863691451</v>
+        <v>0.02395626647458638</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hipparchia fidia</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C60">
-        <v>105.3651538753016</v>
+        <v>323.5801466563206</v>
       </c>
       <c r="D60">
-        <v>3.553320349849955</v>
+        <v>3.446571569736534</v>
       </c>
       <c r="E60">
-        <v>0.05990106167370825</v>
+        <v>0.02293718766712043</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C61">
-        <v>176.5643554006892</v>
+        <v>323.6331740454303</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>3.499598958846207</v>
       </c>
       <c r="E61">
-        <v>0.2308430816515005</v>
+        <v>0.02233702944294464</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C62">
-        <v>177.8477420716009</v>
+        <v>323.703117302178</v>
       </c>
       <c r="D62">
-        <v>1.283386670911682</v>
+        <v>3.56954221559397</v>
       </c>
       <c r="E62">
-        <v>0.1215158666573671</v>
+        <v>0.0215693685625915</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C63">
-        <v>178.7044526447889</v>
+        <v>323.9131761549017</v>
       </c>
       <c r="D63">
-        <v>2.140097244099707</v>
+        <v>3.779601068317618</v>
       </c>
       <c r="E63">
-        <v>0.07917729333774953</v>
+        <v>0.0194188600187937</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Brintesia circe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C64">
-        <v>178.836779610052</v>
+        <v>324.0781497998934</v>
       </c>
       <c r="D64">
-        <v>2.272424209362839</v>
+        <v>3.94457471330935</v>
       </c>
       <c r="E64">
-        <v>0.07410819165196374</v>
+        <v>0.017881344045378</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C65">
-        <v>179.1502900571084</v>
+        <v>89.72118833164755</v>
       </c>
       <c r="D65">
-        <v>2.585934656419255</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0.06335607837605239</v>
+        <v>0.2834276202111775</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C66">
-        <v>179.2929031670618</v>
+        <v>91.46953223499253</v>
       </c>
       <c r="D66">
-        <v>2.7285477663726</v>
+        <v>1.748343903344974</v>
       </c>
       <c r="E66">
-        <v>0.05899568444890063</v>
+        <v>0.1182480847947084</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C67">
-        <v>179.9165448090411</v>
+        <v>91.55488983765403</v>
       </c>
       <c r="D67">
-        <v>3.352189408351933</v>
+        <v>1.833701506006477</v>
       </c>
       <c r="E67">
-        <v>0.04319148957684628</v>
+        <v>0.1133075756767209</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hipparchia hermione</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C68">
-        <v>180.5449439721456</v>
+        <v>92.90090307997806</v>
       </c>
       <c r="D68">
-        <v>3.980588571456394</v>
+        <v>3.179714748330511</v>
       </c>
       <c r="E68">
-        <v>0.03154590838075185</v>
+        <v>0.05780639493134272</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Chazara briseis</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C69">
-        <v>225.5412403721629</v>
+        <v>93.60317672685379</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3.881988395206236</v>
       </c>
       <c r="E69">
-        <v>0.1001175605646791</v>
+        <v>0.04068919528416303</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Coenonympha dorus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C70">
-        <v>226.1012376035925</v>
+        <v>39.17345739689341</v>
       </c>
       <c r="D70">
-        <v>0.5599972314296053</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0.07566732925408468</v>
+        <v>0.6626488823254146</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Coenonympha dorus</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C71">
-        <v>226.4138484323727</v>
+        <v>40.8538365317857</v>
       </c>
       <c r="D71">
-        <v>0.8726080602098136</v>
+        <v>1.680379134892284</v>
       </c>
       <c r="E71">
-        <v>0.06471811009334549</v>
+        <v>0.2860182709457514</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C72">
-        <v>226.8978231131271</v>
+        <v>61.01829047511821</v>
       </c>
       <c r="D72">
-        <v>1.356582740964228</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.0508079953342447</v>
+        <v>0.1336815253957022</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C73">
-        <v>226.9381992695481</v>
+        <v>61.21527543077595</v>
       </c>
       <c r="D73">
-        <v>1.39695889738519</v>
+        <v>0.1969849556577401</v>
       </c>
       <c r="E73">
-        <v>0.04979256384297794</v>
+        <v>0.1211425337471332</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C74">
-        <v>226.9547573385807</v>
+        <v>61.66801522320947</v>
       </c>
       <c r="D74">
-        <v>1.413516966417802</v>
+        <v>0.6497247480912591</v>
       </c>
       <c r="E74">
-        <v>0.04938203123996698</v>
+        <v>0.09660185278235407</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Dec_pre</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C75">
-        <v>227.3595638912028</v>
+        <v>62.0228582297614</v>
       </c>
       <c r="D75">
-        <v>1.818323519039922</v>
+        <v>1.00456775464319</v>
       </c>
       <c r="E75">
-        <v>0.0403335384168788</v>
+        <v>0.08089697388172502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C76">
-        <v>227.5576963313886</v>
+        <v>62.34577557360854</v>
       </c>
       <c r="D76">
-        <v>2.016455959225652</v>
+        <v>1.327485098490328</v>
       </c>
       <c r="E76">
-        <v>0.03652938925023287</v>
+        <v>0.06883537234753288</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C77">
-        <v>227.5893548407333</v>
+        <v>62.41607645120889</v>
       </c>
       <c r="D77">
-        <v>2.048114468570333</v>
+        <v>1.397785976090681</v>
       </c>
       <c r="E77">
-        <v>0.03595570869125381</v>
+        <v>0.06645780978364914</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C78">
-        <v>227.6610668633941</v>
+        <v>62.69540859429203</v>
       </c>
       <c r="D78">
-        <v>2.119826491231208</v>
+        <v>1.677118119173819</v>
       </c>
       <c r="E78">
-        <v>0.03468931989375926</v>
+        <v>0.05779494039538736</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C79">
-        <v>227.6722951498994</v>
+        <v>62.86901543918133</v>
       </c>
       <c r="D79">
-        <v>2.131054777736466</v>
+        <v>1.850724964063119</v>
       </c>
       <c r="E79">
-        <v>0.03449511474040443</v>
+        <v>0.05298971366853985</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C80">
-        <v>227.6736064968929</v>
+        <v>63.01463795218601</v>
       </c>
       <c r="D80">
-        <v>2.132366124730027</v>
+        <v>1.996347477067793</v>
       </c>
       <c r="E80">
-        <v>0.03447250462113877</v>
+        <v>0.04926858005570893</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C81">
-        <v>227.8215909618197</v>
+        <v>63.15585565494553</v>
       </c>
       <c r="D81">
-        <v>2.280350589656734</v>
+        <v>2.13756517982732</v>
       </c>
       <c r="E81">
-        <v>0.03201388792554641</v>
+        <v>0.04590975882837612</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="C82">
-        <v>227.9833323495505</v>
+        <v>64.06417832011425</v>
       </c>
       <c r="D82">
-        <v>2.442091977387577</v>
+        <v>3.045887844996038</v>
       </c>
       <c r="E82">
-        <v>0.02952682323609793</v>
+        <v>0.02915179160610319</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2097,649 +2097,649 @@
         </is>
       </c>
       <c r="C83">
-        <v>228.2473324760237</v>
+        <v>64.56340188405947</v>
       </c>
       <c r="D83">
-        <v>2.706092103860811</v>
+        <v>3.54511140894126</v>
       </c>
       <c r="E83">
-        <v>0.02587556401997163</v>
+        <v>0.02271225372580939</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C84">
-        <v>228.2640445053897</v>
+        <v>64.61358498087876</v>
       </c>
       <c r="D84">
-        <v>2.722804133226816</v>
+        <v>3.595294505760542</v>
       </c>
       <c r="E84">
-        <v>0.0256602482707018</v>
+        <v>0.02214945834277727</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Erebia hispania</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C85">
-        <v>228.3007973206696</v>
+        <v>64.75687999622606</v>
       </c>
       <c r="D85">
-        <v>2.759556948506656</v>
+        <v>3.738589521107848</v>
       </c>
       <c r="E85">
-        <v>0.02519301130526387</v>
+        <v>0.02061802172712801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C86">
-        <v>228.3780672771061</v>
+        <v>179.1758855756349</v>
       </c>
       <c r="D86">
-        <v>2.836826904943166</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0.02423824236021649</v>
+        <v>0.3491767475662723</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C87">
-        <v>228.4991943535403</v>
+        <v>179.864017830168</v>
       </c>
       <c r="D87">
-        <v>2.957953981377358</v>
+        <v>0.688132254533059</v>
       </c>
       <c r="E87">
-        <v>0.02281385690778481</v>
+        <v>0.2475251286506142</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C88">
-        <v>228.8385837115791</v>
+        <v>180.0544491834413</v>
       </c>
       <c r="D88">
-        <v>3.297343339416216</v>
+        <v>0.8785636078063987</v>
       </c>
       <c r="E88">
-        <v>0.01925312588993263</v>
+        <v>0.2250441106042595</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Euphydryas aurinia</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C89">
-        <v>228.9210397266306</v>
+        <v>181.361258300729</v>
       </c>
       <c r="D89">
-        <v>3.379799354467707</v>
+        <v>2.185372725094027</v>
       </c>
       <c r="E89">
-        <v>0.01847549803883138</v>
+        <v>0.1170840287513973</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Fabriciana niobe</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C90">
-        <v>228.9639017235435</v>
+        <v>130.2249223145864</v>
       </c>
       <c r="D90">
-        <v>3.422661351380583</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>0.01808376230599089</v>
+        <v>0.4532416296235588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Fabriciana niobe</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C91">
-        <v>229.0013202142237</v>
+        <v>130.4107370428924</v>
       </c>
       <c r="D91">
-        <v>3.460079842060736</v>
+        <v>0.1858147283060134</v>
       </c>
       <c r="E91">
-        <v>0.01774857409682409</v>
+        <v>0.4130290865037494</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Fabriciana niobe</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C92">
-        <v>229.125662631684</v>
+        <v>132.7799897580545</v>
       </c>
       <c r="D92">
-        <v>3.584422259521034</v>
+        <v>2.555067443468147</v>
       </c>
       <c r="E92">
-        <v>0.01667872527071354</v>
+        <v>0.1263292583728139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C93">
-        <v>229.2200358042541</v>
+        <v>101.8118335254517</v>
       </c>
       <c r="D93">
-        <v>3.678795432091221</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0.01590999272525539</v>
+        <v>0.3540203523485902</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C94">
-        <v>229.2300050211113</v>
+        <v>103.3143080782808</v>
       </c>
       <c r="D94">
-        <v>3.688764648948364</v>
+        <v>1.502474552829156</v>
       </c>
       <c r="E94">
-        <v>0.01583088496581547</v>
+        <v>0.1670205949015177</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C95">
-        <v>229.3843865628974</v>
+        <v>103.7821331756592</v>
       </c>
       <c r="D95">
-        <v>3.843146190734473</v>
+        <v>1.970299650207565</v>
       </c>
       <c r="E95">
-        <v>0.01465485977608506</v>
+        <v>0.1321852805438331</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C96">
-        <v>229.3945756623895</v>
+        <v>104.8100222595398</v>
       </c>
       <c r="D96">
-        <v>3.853335290226568</v>
+        <v>2.998188734088131</v>
       </c>
       <c r="E96">
-        <v>0.01458038972070427</v>
+        <v>0.07906418863691451</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Hipparchia semele</t>
+          <t>Hipparchia fidia</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C97">
-        <v>229.5138967033392</v>
+        <v>105.3651538753016</v>
       </c>
       <c r="D97">
-        <v>3.972656331176267</v>
+        <v>3.553320349849955</v>
       </c>
       <c r="E97">
-        <v>0.0137359562092672</v>
+        <v>0.05990106167370825</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C98">
-        <v>198.9734555295865</v>
+        <v>176.5643554006892</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0.2114769957792972</v>
+        <v>0.2308430816515005</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C99">
-        <v>200.1862727488734</v>
+        <v>177.8477420716009</v>
       </c>
       <c r="D99">
-        <v>1.212817219286876</v>
+        <v>1.283386670911682</v>
       </c>
       <c r="E99">
-        <v>0.1153196244213817</v>
+        <v>0.1215158666573671</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C100">
-        <v>200.8191259014307</v>
+        <v>178.7044526447889</v>
       </c>
       <c r="D100">
-        <v>1.845670371844164</v>
+        <v>2.140097244099707</v>
       </c>
       <c r="E100">
-        <v>0.08403900528079213</v>
+        <v>0.07917729333774953</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C101">
-        <v>201.1200849587235</v>
+        <v>178.836779610052</v>
       </c>
       <c r="D101">
-        <v>2.14662942913705</v>
+        <v>2.272424209362839</v>
       </c>
       <c r="E101">
-        <v>0.07229836472527758</v>
+        <v>0.07410819165196374</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C102">
-        <v>201.2610831299049</v>
+        <v>179.1502900571084</v>
       </c>
       <c r="D102">
-        <v>2.287627600318388</v>
+        <v>2.585934656419255</v>
       </c>
       <c r="E102">
-        <v>0.0673769132198898</v>
+        <v>0.06335607837605239</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C103">
-        <v>201.42276449305</v>
+        <v>179.2929031670618</v>
       </c>
       <c r="D103">
-        <v>2.449308963463494</v>
+        <v>2.7285477663726</v>
       </c>
       <c r="E103">
-        <v>0.06214446429007365</v>
+        <v>0.05899568444890063</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C104">
-        <v>201.8102257801409</v>
+        <v>179.9165448090411</v>
       </c>
       <c r="D104">
-        <v>2.836770250554423</v>
+        <v>3.352189408351933</v>
       </c>
       <c r="E104">
-        <v>0.05119956829607364</v>
+        <v>0.04319148957684628</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia hermione</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C105">
-        <v>202.0646399057169</v>
+        <v>180.5449439721456</v>
       </c>
       <c r="D105">
-        <v>3.091184376130428</v>
+        <v>3.980588571456394</v>
       </c>
       <c r="E105">
-        <v>0.04508384766704641</v>
+        <v>0.03154590838075185</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C106">
-        <v>202.6291127585734</v>
+        <v>225.5412403721629</v>
       </c>
       <c r="D106">
-        <v>3.655657228986911</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0.03399752103002306</v>
+        <v>0.1001175605646791</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hipparchia statilinus</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C107">
-        <v>202.9165602325519</v>
+        <v>226.1012376035925</v>
       </c>
       <c r="D107">
-        <v>3.943104702965371</v>
+        <v>0.5599972314296053</v>
       </c>
       <c r="E107">
-        <v>0.02944617068847135</v>
+        <v>0.07566732925408468</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Hyponephele</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>Dec_preJan</t>
         </is>
       </c>
       <c r="C108">
-        <v>536.6897979080303</v>
+        <v>226.4138484323727</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.8726080602098136</v>
       </c>
       <c r="E108">
-        <v>0.4122264361887674</v>
+        <v>0.06471811009334549</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hyponephele</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C109">
-        <v>538.0261762360765</v>
+        <v>226.8978231131271</v>
       </c>
       <c r="D109">
-        <v>1.33637832804618</v>
+        <v>1.356582740964228</v>
       </c>
       <c r="E109">
-        <v>0.2113221268311554</v>
+        <v>0.0508079953342447</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Hyponephele</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C110">
-        <v>538.7388174955166</v>
+        <v>226.9381992695481</v>
       </c>
       <c r="D110">
-        <v>2.049019587486328</v>
+        <v>1.39695889738519</v>
       </c>
       <c r="E110">
-        <v>0.1479779101720598</v>
+        <v>0.04979256384297794</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Hyponephele</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C111">
-        <v>540.6726948370658</v>
+        <v>226.9547573385807</v>
       </c>
       <c r="D111">
-        <v>3.982896929035519</v>
+        <v>1.413516966417802</v>
       </c>
       <c r="E111">
-        <v>0.05626790695307011</v>
+        <v>0.04938203123996698</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lycaena alciphron</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Dec_pre</t>
         </is>
       </c>
       <c r="C112">
-        <v>356.8052645536908</v>
+        <v>227.3595638912028</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1.818323519039922</v>
       </c>
       <c r="E112">
-        <v>0.6564513042351584</v>
+        <v>0.0403335384168788</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Lycaena alciphron</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C113">
-        <v>360.0415618476931</v>
+        <v>227.5576963313886</v>
       </c>
       <c r="D113">
-        <v>3.23629729400227</v>
+        <v>2.016455959225652</v>
       </c>
       <c r="E113">
-        <v>0.1301515927512022</v>
+        <v>0.03652938925023287</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2748,355 +2748,355 @@
         </is>
       </c>
       <c r="C114">
-        <v>137.3445684345232</v>
+        <v>227.5893548407333</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>2.048114468570333</v>
       </c>
       <c r="E114">
-        <v>0.1515484285488173</v>
+        <v>0.03595570869125381</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C115">
-        <v>138.1378226308702</v>
+        <v>227.6610668633941</v>
       </c>
       <c r="D115">
-        <v>0.7932541963469646</v>
+        <v>2.119826491231208</v>
       </c>
       <c r="E115">
-        <v>0.1019291675312386</v>
+        <v>0.03468931989375926</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C116">
-        <v>139.1245392588082</v>
+        <v>227.6722951498994</v>
       </c>
       <c r="D116">
-        <v>1.779970824284931</v>
+        <v>2.131054777736466</v>
       </c>
       <c r="E116">
-        <v>0.06223514187491098</v>
+        <v>0.03449511474040443</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C117">
-        <v>139.6839667647345</v>
+        <v>227.6736064968929</v>
       </c>
       <c r="D117">
-        <v>2.33939833021131</v>
+        <v>2.132366124730027</v>
       </c>
       <c r="E117">
-        <v>0.04704977430734281</v>
+        <v>0.03447250462113877</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C118">
-        <v>139.9850193732667</v>
+        <v>227.8215909618197</v>
       </c>
       <c r="D118">
-        <v>2.64045093874347</v>
+        <v>2.280350589656734</v>
       </c>
       <c r="E118">
-        <v>0.04047480836435054</v>
+        <v>0.03201388792554641</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C119">
-        <v>140.1795422725217</v>
+        <v>227.9833323495505</v>
       </c>
       <c r="D119">
-        <v>2.83497383799849</v>
+        <v>2.442091977387577</v>
       </c>
       <c r="E119">
-        <v>0.03672355281371029</v>
+        <v>0.02952682323609793</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C120">
-        <v>140.2663382218003</v>
+        <v>228.2473324760237</v>
       </c>
       <c r="D120">
-        <v>2.9217697872771</v>
+        <v>2.706092103860811</v>
       </c>
       <c r="E120">
-        <v>0.03516391239356314</v>
+        <v>0.02587556401997163</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C121">
-        <v>140.2957821561092</v>
+        <v>228.2640445053897</v>
       </c>
       <c r="D121">
-        <v>2.951213721585958</v>
+        <v>2.722804133226816</v>
       </c>
       <c r="E121">
-        <v>0.0346500224472568</v>
+        <v>0.0256602482707018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C122">
-        <v>140.3736863877928</v>
+        <v>228.3007973206696</v>
       </c>
       <c r="D122">
-        <v>3.029117953269605</v>
+        <v>2.759556948506656</v>
       </c>
       <c r="E122">
-        <v>0.03332627942321591</v>
+        <v>0.02519301130526387</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C123">
-        <v>140.528210542852</v>
+        <v>228.3780672771061</v>
       </c>
       <c r="D123">
-        <v>3.183642108328769</v>
+        <v>2.836826904943166</v>
       </c>
       <c r="E123">
-        <v>0.03084837825014983</v>
+        <v>0.02423824236021649</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C124">
-        <v>140.5701430114771</v>
+        <v>228.4991943535403</v>
       </c>
       <c r="D124">
-        <v>3.225574576953818</v>
+        <v>2.957953981377358</v>
       </c>
       <c r="E124">
-        <v>0.03020833699680454</v>
+        <v>0.02281385690778481</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C125">
-        <v>140.8006460153718</v>
+        <v>228.8385837115791</v>
       </c>
       <c r="D125">
-        <v>3.456077580848557</v>
+        <v>3.297343339416216</v>
       </c>
       <c r="E125">
-        <v>0.02691991759952318</v>
+        <v>0.01925312588993263</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C126">
-        <v>141.038380132505</v>
+        <v>228.9210397266306</v>
       </c>
       <c r="D126">
-        <v>3.693811697981801</v>
+        <v>3.379799354467707</v>
       </c>
       <c r="E126">
-        <v>0.02390289031401221</v>
+        <v>0.01847549803883138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C127">
-        <v>141.076106771565</v>
+        <v>228.9639017235435</v>
       </c>
       <c r="D127">
-        <v>3.731538337041798</v>
+        <v>3.422661351380583</v>
       </c>
       <c r="E127">
-        <v>0.02345622846330369</v>
+        <v>0.01808376230599089</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C128">
-        <v>141.1356718711551</v>
+        <v>229.0013202142237</v>
       </c>
       <c r="D128">
-        <v>3.791103436631829</v>
+        <v>3.460079842060736</v>
       </c>
       <c r="E128">
-        <v>0.02276794250162309</v>
+        <v>0.01774857409682409</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C129">
-        <v>141.1794057148722</v>
+        <v>229.125662631684</v>
       </c>
       <c r="D129">
-        <v>3.834837280349007</v>
+        <v>3.584422259521034</v>
       </c>
       <c r="E129">
-        <v>0.02227548160687317</v>
+        <v>0.01667872527071354</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Maniola jurtina</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C130">
-        <v>141.1823664175156</v>
+        <v>229.2200358042541</v>
       </c>
       <c r="D130">
-        <v>3.837797982992385</v>
+        <v>3.678795432091221</v>
       </c>
       <c r="E130">
-        <v>0.02224253046388675</v>
+        <v>0.01590999272525539</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Melanargia lachesis</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3105,355 +3105,355 @@
         </is>
       </c>
       <c r="C131">
-        <v>405.3778893014615</v>
+        <v>229.2300050211113</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>3.688764648948364</v>
       </c>
       <c r="E131">
-        <v>0.4931057346208028</v>
+        <v>0.01583088496581547</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Melanargia lachesis</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C132">
-        <v>405.444642603274</v>
+        <v>229.3843865628974</v>
       </c>
       <c r="D132">
-        <v>0.06675330181246864</v>
+        <v>3.843146190734473</v>
       </c>
       <c r="E132">
-        <v>0.4769191463379035</v>
+        <v>0.01465485977608506</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C133">
-        <v>91.16626694680606</v>
+        <v>229.3945756623895</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>3.853335290226568</v>
       </c>
       <c r="E133">
-        <v>0.2702619609177156</v>
+        <v>0.01458038972070427</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia semele</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C134">
-        <v>91.70332018221625</v>
+        <v>229.5138967033392</v>
       </c>
       <c r="D134">
-        <v>0.537053235410184</v>
+        <v>3.972656331176267</v>
       </c>
       <c r="E134">
-        <v>0.2066166402060452</v>
+        <v>0.0137359562092672</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C135">
-        <v>91.95058786979875</v>
+        <v>198.9734555295865</v>
       </c>
       <c r="D135">
-        <v>0.7843209229926913</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0.1825878181738963</v>
+        <v>0.2114769957792972</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C136">
-        <v>93.6405922131448</v>
+        <v>200.1862727488734</v>
       </c>
       <c r="D136">
-        <v>2.474325266338738</v>
+        <v>1.212817219286876</v>
       </c>
       <c r="E136">
-        <v>0.07843177048789658</v>
+        <v>0.1153196244213817</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Melanargia occitanica</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C137">
-        <v>94.94101008066994</v>
+        <v>200.8191259014307</v>
       </c>
       <c r="D137">
-        <v>3.774743133863879</v>
+        <v>1.845670371844164</v>
       </c>
       <c r="E137">
-        <v>0.04093642065313496</v>
+        <v>0.08403900528079213</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C138">
-        <v>128.0759455512841</v>
+        <v>201.1200849587235</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2.14662942913705</v>
       </c>
       <c r="E138">
-        <v>0.1609968602905147</v>
+        <v>0.07229836472527758</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C139">
-        <v>129.2082625043125</v>
+        <v>201.2610831299049</v>
       </c>
       <c r="D139">
-        <v>1.132316953028379</v>
+        <v>2.287627600318388</v>
       </c>
       <c r="E139">
-        <v>0.09139825505528112</v>
+        <v>0.0673769132198898</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C140">
-        <v>129.82281393471</v>
+        <v>201.42276449305</v>
       </c>
       <c r="D140">
-        <v>1.746868383425806</v>
+        <v>2.449308963463494</v>
       </c>
       <c r="E140">
-        <v>0.06721864549591421</v>
+        <v>0.06214446429007365</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C141">
-        <v>129.8803880736819</v>
+        <v>201.8102257801409</v>
       </c>
       <c r="D141">
-        <v>1.80444252239775</v>
+        <v>2.836770250554423</v>
       </c>
       <c r="E141">
-        <v>0.06531120422168132</v>
+        <v>0.05119956829607364</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nov_pre</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C142">
-        <v>130.5965475553355</v>
+        <v>202.0646399057169</v>
       </c>
       <c r="D142">
-        <v>2.520602004051312</v>
+        <v>3.091184376130428</v>
       </c>
       <c r="E142">
-        <v>0.04565366376158546</v>
+        <v>0.04508384766704641</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C143">
-        <v>130.7342793021828</v>
+        <v>202.6291127585734</v>
       </c>
       <c r="D143">
-        <v>2.658333750898663</v>
+        <v>3.655657228986911</v>
       </c>
       <c r="E143">
-        <v>0.04261549791953343</v>
+        <v>0.03399752103002306</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hipparchia statilinus</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C144">
-        <v>130.9736889920928</v>
+        <v>202.9165602325519</v>
       </c>
       <c r="D144">
-        <v>2.897743440808625</v>
+        <v>3.943104702965371</v>
       </c>
       <c r="E144">
-        <v>0.03780771351642088</v>
+        <v>0.02944617068847135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C145">
-        <v>131.3373562261123</v>
+        <v>536.6897979080303</v>
       </c>
       <c r="D145">
-        <v>3.261410674828113</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>0.03152180492121404</v>
+        <v>0.4122264361887674</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C146">
-        <v>131.5126728189397</v>
+        <v>538.0261762360765</v>
       </c>
       <c r="D146">
-        <v>3.436727267655556</v>
+        <v>1.33637832804618</v>
       </c>
       <c r="E146">
-        <v>0.02887630116059182</v>
+        <v>0.2113221268311554</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C147">
-        <v>131.5665072461366</v>
+        <v>538.7388174955166</v>
       </c>
       <c r="D147">
-        <v>3.490561694852403</v>
+        <v>2.049019587486328</v>
       </c>
       <c r="E147">
-        <v>0.02810939932800267</v>
+        <v>0.1479779101720598</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Hyponephele</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3462,355 +3462,355 @@
         </is>
       </c>
       <c r="C148">
-        <v>131.80394442173</v>
+        <v>540.6726948370658</v>
       </c>
       <c r="D148">
-        <v>3.727998870445873</v>
+        <v>3.982896929035519</v>
       </c>
       <c r="E148">
-        <v>0.02496276783728679</v>
+        <v>0.05626790695307011</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Lycaena alciphron</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C149">
-        <v>131.8043867467268</v>
+        <v>356.8052645536908</v>
       </c>
       <c r="D149">
-        <v>3.728441195442684</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>0.02495724761963984</v>
+        <v>0.6564513042351584</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Lycaena alciphron</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C150">
-        <v>131.861633362855</v>
+        <v>360.0415618476931</v>
       </c>
       <c r="D150">
-        <v>3.785687811570853</v>
+        <v>3.23629729400227</v>
       </c>
       <c r="E150">
-        <v>0.02425301544032936</v>
+        <v>0.1301515927512022</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C151">
-        <v>131.8839054201196</v>
+        <v>137.3445684345232</v>
       </c>
       <c r="D151">
-        <v>3.807959868835411</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>0.02398443142124177</v>
+        <v>0.1515484285488173</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C152">
-        <v>131.8961796069131</v>
+        <v>138.1378226308702</v>
       </c>
       <c r="D152">
-        <v>3.820234055628902</v>
+        <v>0.7932541963469646</v>
       </c>
       <c r="E152">
-        <v>0.0238376874767671</v>
+        <v>0.1019291675312386</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C153">
-        <v>131.9363843080807</v>
+        <v>139.1245392588082</v>
       </c>
       <c r="D153">
-        <v>3.860438756796526</v>
+        <v>1.779970824284931</v>
       </c>
       <c r="E153">
-        <v>0.02336327827188043</v>
+        <v>0.06223514187491098</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C154">
-        <v>131.9380455271597</v>
+        <v>139.6839667647345</v>
       </c>
       <c r="D154">
-        <v>3.862099975875537</v>
+        <v>2.33939833021131</v>
       </c>
       <c r="E154">
-        <v>0.0233438805671482</v>
+        <v>0.04704977430734281</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Melitaea phoebe</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C155">
-        <v>132.0611800208937</v>
+        <v>139.9850193732667</v>
       </c>
       <c r="D155">
-        <v>3.985234469609594</v>
+        <v>2.64045093874347</v>
       </c>
       <c r="E155">
-        <v>0.02195001073722226</v>
+        <v>0.04047480836435054</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C156">
-        <v>71.03462309457092</v>
+        <v>140.1795422725217</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>2.83497383799849</v>
       </c>
       <c r="E156">
-        <v>0.07500499975215241</v>
+        <v>0.03672355281371029</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C157">
-        <v>71.27718993039684</v>
+        <v>140.2663382218003</v>
       </c>
       <c r="D157">
-        <v>0.2425668358259259</v>
+        <v>2.9217697872771</v>
       </c>
       <c r="E157">
-        <v>0.06643814449081176</v>
+        <v>0.03516391239356314</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C158">
-        <v>71.69749729675655</v>
+        <v>140.2957821561092</v>
       </c>
       <c r="D158">
-        <v>0.662874202185634</v>
+        <v>2.951213721585958</v>
       </c>
       <c r="E158">
-        <v>0.05384543748178282</v>
+        <v>0.0346500224472568</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C159">
-        <v>71.77806885934535</v>
+        <v>140.3736863877928</v>
       </c>
       <c r="D159">
-        <v>0.7434457647744352</v>
+        <v>3.029117953269605</v>
       </c>
       <c r="E159">
-        <v>0.0517193451454472</v>
+        <v>0.03332627942321591</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C160">
-        <v>71.82401320979238</v>
+        <v>140.528210542852</v>
       </c>
       <c r="D160">
-        <v>0.7893901152214653</v>
+        <v>3.183642108328769</v>
       </c>
       <c r="E160">
-        <v>0.05054478207366462</v>
+        <v>0.03084837825014983</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C161">
-        <v>72.0978462998995</v>
+        <v>140.5701430114771</v>
       </c>
       <c r="D161">
-        <v>1.063223205328583</v>
+        <v>3.225574576953818</v>
       </c>
       <c r="E161">
-        <v>0.04407722336339792</v>
+        <v>0.03020833699680454</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C162">
-        <v>72.20014059580733</v>
+        <v>140.8006460153718</v>
       </c>
       <c r="D162">
-        <v>1.165517501236408</v>
+        <v>3.456077580848557</v>
       </c>
       <c r="E162">
-        <v>0.04187948228498105</v>
+        <v>0.02691991759952318</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C163">
-        <v>72.44252831124943</v>
+        <v>141.038380132505</v>
       </c>
       <c r="D163">
-        <v>1.407905216678515</v>
+        <v>3.693811697981801</v>
       </c>
       <c r="E163">
-        <v>0.03709945080251768</v>
+        <v>0.02390289031401221</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C164">
-        <v>72.46809235806852</v>
+        <v>141.076106771565</v>
       </c>
       <c r="D164">
-        <v>1.433469263497599</v>
+        <v>3.731538337041798</v>
       </c>
       <c r="E164">
-        <v>0.03662826253880283</v>
+        <v>0.02345622846330369</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3819,523 +3819,523 @@
         </is>
       </c>
       <c r="C165">
-        <v>72.5093047613982</v>
+        <v>141.1356718711551</v>
       </c>
       <c r="D165">
-        <v>1.47468166682728</v>
+        <v>3.791103436631829</v>
       </c>
       <c r="E165">
-        <v>0.03588121649873269</v>
+        <v>0.02276794250162309</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C166">
-        <v>72.52577937347772</v>
+        <v>141.1794057148722</v>
       </c>
       <c r="D166">
-        <v>1.4911562789068</v>
+        <v>3.834837280349007</v>
       </c>
       <c r="E166">
-        <v>0.03558686592959827</v>
+        <v>0.02227548160687317</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Maniola jurtina</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C167">
-        <v>72.7174432838348</v>
+        <v>141.1823664175156</v>
       </c>
       <c r="D167">
-        <v>1.682820189263879</v>
+        <v>3.837797982992385</v>
       </c>
       <c r="E167">
-        <v>0.03233482038429297</v>
+        <v>0.02224253046388675</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia lachesis</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C168">
-        <v>72.83837575181145</v>
+        <v>405.3778893014615</v>
       </c>
       <c r="D168">
-        <v>1.803752657240537</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0.03043759268882285</v>
+        <v>0.4931057346208028</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia lachesis</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C169">
-        <v>72.88526451545513</v>
+        <v>405.444642603274</v>
       </c>
       <c r="D169">
-        <v>1.850641420884216</v>
+        <v>0.06675330181246864</v>
       </c>
       <c r="E169">
-        <v>0.02973230200049679</v>
+        <v>0.4769191463379035</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C170">
-        <v>72.96448330962625</v>
+        <v>91.16626694680606</v>
       </c>
       <c r="D170">
-        <v>1.929860215055328</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0.02857764209428406</v>
+        <v>0.2702619609177156</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C171">
-        <v>73.2434423398997</v>
+        <v>91.70332018221625</v>
       </c>
       <c r="D171">
-        <v>2.208819245328783</v>
+        <v>0.537053235410184</v>
       </c>
       <c r="E171">
-        <v>0.02485714290319897</v>
+        <v>0.2066166402060452</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C172">
-        <v>73.28151180837074</v>
+        <v>91.95058786979875</v>
       </c>
       <c r="D172">
-        <v>2.246888713799819</v>
+        <v>0.7843209229926913</v>
       </c>
       <c r="E172">
-        <v>0.02438846849141844</v>
+        <v>0.1825878181738963</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C173">
-        <v>73.34972617426961</v>
+        <v>93.6405922131448</v>
       </c>
       <c r="D173">
-        <v>2.315103079698687</v>
+        <v>2.474325266338738</v>
       </c>
       <c r="E173">
-        <v>0.02357067217599382</v>
+        <v>0.07843177048789658</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melanargia occitanica</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C174">
-        <v>73.36996709610997</v>
+        <v>94.94101008066994</v>
       </c>
       <c r="D174">
-        <v>2.335344001539056</v>
+        <v>3.774743133863879</v>
       </c>
       <c r="E174">
-        <v>0.02333332914559916</v>
+        <v>0.04093642065313496</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea deione</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C175">
-        <v>73.38291513818217</v>
+        <v>59.8916808005518</v>
       </c>
       <c r="D175">
-        <v>2.348292043611252</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0.02318275661265243</v>
+        <v>0.2854847333244607</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea deione</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C176">
-        <v>73.4350984811885</v>
+        <v>63.14180749090784</v>
       </c>
       <c r="D176">
-        <v>2.400475386617586</v>
+        <v>3.250126690356041</v>
       </c>
       <c r="E176">
-        <v>0.02258570268134742</v>
+        <v>0.05621171623019046</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea deione</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Nov_pre</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C177">
-        <v>73.44537967468366</v>
+        <v>63.58562315807852</v>
       </c>
       <c r="D177">
-        <v>2.410756580112746</v>
+        <v>3.693942357526716</v>
       </c>
       <c r="E177">
-        <v>0.02246989660279885</v>
+        <v>0.0450249767838301</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C178">
-        <v>73.46100620509162</v>
+        <v>128.0759455512841</v>
       </c>
       <c r="D178">
-        <v>2.426383110520703</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>0.02229501741990737</v>
+        <v>0.1609968602905147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C179">
-        <v>73.62490384752095</v>
+        <v>129.2082625043125</v>
       </c>
       <c r="D179">
-        <v>2.590280752950036</v>
+        <v>1.132316953028379</v>
       </c>
       <c r="E179">
-        <v>0.02054082559521048</v>
+        <v>0.09139825505528112</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C180">
-        <v>73.64096127869868</v>
+        <v>129.82281393471</v>
       </c>
       <c r="D180">
-        <v>2.606338184127765</v>
+        <v>1.746868383425806</v>
       </c>
       <c r="E180">
-        <v>0.02037656941395982</v>
+        <v>0.06721864549591421</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C181">
-        <v>73.71083605582569</v>
+        <v>129.8803880736819</v>
       </c>
       <c r="D181">
-        <v>2.676212961254777</v>
+        <v>1.80444252239775</v>
       </c>
       <c r="E181">
-        <v>0.01967695775489081</v>
+        <v>0.06531120422168132</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>Nov_pre</t>
         </is>
       </c>
       <c r="C182">
-        <v>73.80377874859293</v>
+        <v>130.5965475553355</v>
       </c>
       <c r="D182">
-        <v>2.769155654022015</v>
+        <v>2.520602004051312</v>
       </c>
       <c r="E182">
-        <v>0.01878346473913334</v>
+        <v>0.04565366376158546</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C183">
-        <v>73.90584044888597</v>
+        <v>130.7342793021828</v>
       </c>
       <c r="D183">
-        <v>2.87121735431505</v>
+        <v>2.658333750898663</v>
       </c>
       <c r="E183">
-        <v>0.01784897524830095</v>
+        <v>0.04261549791953343</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C184">
-        <v>74.00387173253482</v>
+        <v>130.9736889920928</v>
       </c>
       <c r="D184">
-        <v>2.969248637963901</v>
+        <v>2.897743440808625</v>
       </c>
       <c r="E184">
-        <v>0.01699519157800602</v>
+        <v>0.03780771351642088</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C185">
-        <v>74.07827302505873</v>
+        <v>131.3373562261123</v>
       </c>
       <c r="D185">
-        <v>3.043649930487817</v>
+        <v>3.261410674828113</v>
       </c>
       <c r="E185">
-        <v>0.01637457471256898</v>
+        <v>0.03152180492121404</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C186">
-        <v>74.65227573777574</v>
+        <v>131.5126728189397</v>
       </c>
       <c r="D186">
-        <v>3.617652643204821</v>
+        <v>3.436727267655556</v>
       </c>
       <c r="E186">
-        <v>0.01228929370780257</v>
+        <v>0.02887630116059182</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Melitaea trivia</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Dec_pre</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C187">
-        <v>74.83720357264296</v>
+        <v>131.5665072461366</v>
       </c>
       <c r="D187">
-        <v>3.802580478072045</v>
+        <v>3.490561694852403</v>
       </c>
       <c r="E187">
-        <v>0.01120392917125347</v>
+        <v>0.02810939932800267</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Parnassius apollo</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C188">
-        <v>244.9604345363509</v>
+        <v>131.80394442173</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>3.727998870445873</v>
       </c>
       <c r="E188">
-        <v>0.9962859255543638</v>
+        <v>0.02496276783728679</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Plebejus argus</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C189">
-        <v>209.7206251806371</v>
+        <v>131.8043867467268</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>3.728441195442684</v>
       </c>
       <c r="E189">
-        <v>0.7483486990477788</v>
+        <v>0.02495724761963984</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Plebejus idas</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4344,901 +4344,901 @@
         </is>
       </c>
       <c r="C190">
-        <v>78.99129062369424</v>
+        <v>131.861633362855</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>3.785687811570853</v>
       </c>
       <c r="E190">
-        <v>0.3177203867923027</v>
+        <v>0.02425301544032936</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Plebejus idas</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C191">
-        <v>80.52544616855833</v>
+        <v>131.8839054201196</v>
       </c>
       <c r="D191">
-        <v>1.534155544864092</v>
+        <v>3.807959868835411</v>
       </c>
       <c r="E191">
-        <v>0.1475392049497897</v>
+        <v>0.02398443142124177</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Plebejus idas</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C192">
-        <v>80.69208332881306</v>
+        <v>131.8961796069131</v>
       </c>
       <c r="D192">
-        <v>1.700792705118815</v>
+        <v>3.820234055628902</v>
       </c>
       <c r="E192">
-        <v>0.1357446241065313</v>
+        <v>0.0238376874767671</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Plebejus idas</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C193">
-        <v>81.78431861513901</v>
+        <v>131.9363843080807</v>
       </c>
       <c r="D193">
-        <v>2.793027991444774</v>
+        <v>3.860438756796526</v>
       </c>
       <c r="E193">
-        <v>0.07862248391612006</v>
+        <v>0.02336327827188043</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Plebejus idas</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C194">
-        <v>82.87515157361067</v>
+        <v>131.9380455271597</v>
       </c>
       <c r="D194">
-        <v>3.883860949916425</v>
+        <v>3.862099975875537</v>
       </c>
       <c r="E194">
-        <v>0.04556961853194164</v>
+        <v>0.0233438805671482</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Polyommatus escheri</t>
+          <t>Melitaea phoebe</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C195">
-        <v>128.6139213107812</v>
+        <v>132.0611800208937</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>3.985234469609594</v>
       </c>
       <c r="E195">
-        <v>0.3093364409324638</v>
+        <v>0.02195001073722226</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Polyommatus escheri</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C196">
-        <v>129.0473689207269</v>
+        <v>71.03462309457092</v>
       </c>
       <c r="D196">
-        <v>0.4334476099457163</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>0.2490629523547258</v>
+        <v>0.07500499975215241</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Polyommatus escheri</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Oct_preNov_preDec_pre</t>
         </is>
       </c>
       <c r="C197">
-        <v>129.6122688977352</v>
+        <v>71.27718993039684</v>
       </c>
       <c r="D197">
-        <v>0.9983475869539973</v>
+        <v>0.2425668358259259</v>
       </c>
       <c r="E197">
-        <v>0.1877771141962458</v>
+        <v>0.06643814449081176</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Pyronia bathseba</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>JulAugSep</t>
         </is>
       </c>
       <c r="C198">
-        <v>89.6120587306395</v>
+        <v>71.69749729675655</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>0.662874202185634</v>
       </c>
       <c r="E198">
-        <v>0.4757607482504205</v>
+        <v>0.05384543748178282</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Pyronia bathseba</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="C199">
-        <v>91.66335271800259</v>
+        <v>71.77806885934535</v>
       </c>
       <c r="D199">
-        <v>2.051293987363081</v>
+        <v>0.7434457647744352</v>
       </c>
       <c r="E199">
-        <v>0.1705908679250252</v>
+        <v>0.0517193451454472</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Pyronia bathseba</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>JulAug</t>
         </is>
       </c>
       <c r="C200">
-        <v>93.37654995533013</v>
+        <v>71.82401320979238</v>
       </c>
       <c r="D200">
-        <v>3.76449122469063</v>
+        <v>0.7893901152214653</v>
       </c>
       <c r="E200">
-        <v>0.07243354246352893</v>
+        <v>0.05054478207366462</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Nov_pre</t>
+          <t>Oct_pre</t>
         </is>
       </c>
       <c r="C201">
-        <v>92.9963922704318</v>
+        <v>72.0978462998995</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1.063223205328583</v>
       </c>
       <c r="E201">
-        <v>0.09252757549496511</v>
+        <v>0.04407722336339792</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>JulAugSep</t>
+          <t>JunJulAug</t>
         </is>
       </c>
       <c r="C202">
-        <v>94.33639642722741</v>
+        <v>72.20014059580733</v>
       </c>
       <c r="D202">
-        <v>1.340004156795615</v>
+        <v>1.165517501236408</v>
       </c>
       <c r="E202">
-        <v>0.04734705565644661</v>
+        <v>0.04187948228498105</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C203">
-        <v>94.40840067758232</v>
+        <v>72.44252831124943</v>
       </c>
       <c r="D203">
-        <v>1.412008407150523</v>
+        <v>1.407905216678515</v>
       </c>
       <c r="E203">
-        <v>0.04567278060112968</v>
+        <v>0.03709945080251768</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Oct_pre</t>
+          <t>JunJul</t>
         </is>
       </c>
       <c r="C204">
-        <v>94.67205944747867</v>
+        <v>72.46809235806852</v>
       </c>
       <c r="D204">
-        <v>1.675667177046876</v>
+        <v>1.433469263497599</v>
       </c>
       <c r="E204">
-        <v>0.04003175943812799</v>
+        <v>0.03662826253880283</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AugSep</t>
+          <t>Oct_preNov_pre</t>
         </is>
       </c>
       <c r="C205">
-        <v>94.69482590857744</v>
+        <v>72.5093047613982</v>
       </c>
       <c r="D205">
-        <v>1.698433638145644</v>
+        <v>1.47468166682728</v>
       </c>
       <c r="E205">
-        <v>0.03957865249426044</v>
+        <v>0.03588121649873269</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>JanFebMar</t>
         </is>
       </c>
       <c r="C206">
-        <v>94.69688694722043</v>
+        <v>72.52577937347772</v>
       </c>
       <c r="D206">
-        <v>1.700494676788637</v>
+        <v>1.4911562789068</v>
       </c>
       <c r="E206">
-        <v>0.03953788693660138</v>
+        <v>0.03558686592959827</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Oct_preNov_pre</t>
+          <t>MayJunJul</t>
         </is>
       </c>
       <c r="C207">
-        <v>94.72221555431189</v>
+        <v>72.7174432838348</v>
       </c>
       <c r="D207">
-        <v>1.725823283880089</v>
+        <v>1.682820189263879</v>
       </c>
       <c r="E207">
-        <v>0.03904032442630658</v>
+        <v>0.03233482038429297</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>AugSep</t>
         </is>
       </c>
       <c r="C208">
-        <v>94.77158268266173</v>
+        <v>72.83837575181145</v>
       </c>
       <c r="D208">
-        <v>1.775190412229932</v>
+        <v>1.803752657240537</v>
       </c>
       <c r="E208">
-        <v>0.03808846603022389</v>
+        <v>0.03043759268882285</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>JunJulAug</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="C209">
-        <v>94.92456934481919</v>
+        <v>72.88526451545513</v>
       </c>
       <c r="D209">
-        <v>1.928177074387392</v>
+        <v>1.850641420884216</v>
       </c>
       <c r="E209">
-        <v>0.03528359681063335</v>
+        <v>0.02973230200049679</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>JulAug</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C210">
-        <v>94.94671037033157</v>
+        <v>72.96448330962625</v>
       </c>
       <c r="D210">
-        <v>1.950318099899775</v>
+        <v>1.929860215055328</v>
       </c>
       <c r="E210">
-        <v>0.03489514345822759</v>
+        <v>0.02857764209428406</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>JunJul</t>
+          <t>JanFeb</t>
         </is>
       </c>
       <c r="C211">
-        <v>94.98333844089508</v>
+        <v>73.2434423398997</v>
       </c>
       <c r="D211">
-        <v>1.986946170463284</v>
+        <v>2.208819245328783</v>
       </c>
       <c r="E211">
-        <v>0.03426188899166181</v>
+        <v>0.02485714290319897</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MayJunJul</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C212">
-        <v>95.09818073277927</v>
+        <v>73.28151180837074</v>
       </c>
       <c r="D212">
-        <v>2.101788462347471</v>
+        <v>2.246888713799819</v>
       </c>
       <c r="E212">
-        <v>0.03234995022729325</v>
+        <v>0.02438846849141844</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C213">
-        <v>95.24000661124086</v>
+        <v>73.34972617426961</v>
       </c>
       <c r="D213">
-        <v>2.24361434080906</v>
+        <v>2.315103079698687</v>
       </c>
       <c r="E213">
-        <v>0.03013536934317994</v>
+        <v>0.02357067217599382</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>MarApr</t>
         </is>
       </c>
       <c r="C214">
-        <v>95.25654595411072</v>
+        <v>73.36996709610997</v>
       </c>
       <c r="D214">
-        <v>2.260153683678922</v>
+        <v>2.335344001539056</v>
       </c>
       <c r="E214">
-        <v>0.0298871873463032</v>
+        <v>0.02333332914559916</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Nov_preDec_preJan</t>
+          <t>MayJun</t>
         </is>
       </c>
       <c r="C215">
-        <v>95.37183666942562</v>
+        <v>73.38291513818217</v>
       </c>
       <c r="D215">
-        <v>2.375444398993821</v>
+        <v>2.348292043611252</v>
       </c>
       <c r="E215">
-        <v>0.02821304653530202</v>
+        <v>0.02318275661265243</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Nov_preDec_pre</t>
+          <t>Nov_preDec_preJan</t>
         </is>
       </c>
       <c r="C216">
-        <v>95.42669429811819</v>
+        <v>73.4350984811885</v>
       </c>
       <c r="D216">
-        <v>2.430302027686395</v>
+        <v>2.400475386617586</v>
       </c>
       <c r="E216">
-        <v>0.02744971264808922</v>
+        <v>0.02258570268134742</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FebMarApr</t>
+          <t>Nov_pre</t>
         </is>
       </c>
       <c r="C217">
-        <v>95.4530613467188</v>
+        <v>73.44537967468366</v>
       </c>
       <c r="D217">
-        <v>2.456669076287</v>
+        <v>2.410756580112746</v>
       </c>
       <c r="E217">
-        <v>0.02709020369887294</v>
+        <v>0.02246989660279885</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>JanFebMar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C218">
-        <v>95.47896454670808</v>
+        <v>73.46100620509162</v>
       </c>
       <c r="D218">
-        <v>2.482572276276287</v>
+        <v>2.426383110520703</v>
       </c>
       <c r="E218">
-        <v>0.02674160454810735</v>
+        <v>0.02229501741990737</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Dec_preJan</t>
         </is>
       </c>
       <c r="C219">
-        <v>95.52114583727368</v>
+        <v>73.62490384752095</v>
       </c>
       <c r="D219">
-        <v>2.524753566841881</v>
+        <v>2.590280752950036</v>
       </c>
       <c r="E219">
-        <v>0.02618351279702897</v>
+        <v>0.02054082559521048</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>AprMayJun</t>
+          <t>Dec_preJanFeb</t>
         </is>
       </c>
       <c r="C220">
-        <v>95.56272983855196</v>
+        <v>73.64096127869868</v>
       </c>
       <c r="D220">
-        <v>2.566337568120161</v>
+        <v>2.606338184127765</v>
       </c>
       <c r="E220">
-        <v>0.02564472582177341</v>
+        <v>0.02037656941395982</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>AprMay</t>
         </is>
       </c>
       <c r="C221">
-        <v>95.60161498237608</v>
+        <v>73.71083605582569</v>
       </c>
       <c r="D221">
-        <v>2.605222711944279</v>
+        <v>2.676212961254777</v>
       </c>
       <c r="E221">
-        <v>0.02515094216261662</v>
+        <v>0.01967695775489081</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>JanFeb</t>
+          <t>Nov_preDec_pre</t>
         </is>
       </c>
       <c r="C222">
-        <v>95.60665854119536</v>
+        <v>73.80377874859293</v>
       </c>
       <c r="D222">
-        <v>2.61026627076356</v>
+        <v>2.769155654022015</v>
       </c>
       <c r="E222">
-        <v>0.02508759693944727</v>
+        <v>0.01878346473913334</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dec_preJanFeb</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="C223">
-        <v>95.64205255006571</v>
+        <v>73.90584044888597</v>
       </c>
       <c r="D223">
-        <v>2.645660279633915</v>
+        <v>2.87121735431505</v>
       </c>
       <c r="E223">
-        <v>0.02464752706953736</v>
+        <v>0.01784897524830095</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dec_preJan</t>
+          <t>FebMar</t>
         </is>
       </c>
       <c r="C224">
-        <v>95.78588374794559</v>
+        <v>74.00387173253482</v>
       </c>
       <c r="D224">
-        <v>2.789491477513792</v>
+        <v>2.969248637963901</v>
       </c>
       <c r="E224">
-        <v>0.02293722128764429</v>
+        <v>0.01699519157800602</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MarApr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C225">
-        <v>95.82460308619669</v>
+        <v>74.07827302505873</v>
       </c>
       <c r="D225">
-        <v>2.828210815764891</v>
+        <v>3.043649930487817</v>
       </c>
       <c r="E225">
-        <v>0.02249743506650575</v>
+        <v>0.01637457471256898</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MarAprMay</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="C226">
-        <v>95.90625961831569</v>
+        <v>74.65227573777574</v>
       </c>
       <c r="D226">
-        <v>2.909867347883889</v>
+        <v>3.617652643204821</v>
       </c>
       <c r="E226">
-        <v>0.02159740221446523</v>
+        <v>0.01228929370780257</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Melitaea trivia</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Dec_pre</t>
         </is>
       </c>
       <c r="C227">
-        <v>96.06208580530979</v>
+        <v>74.83720357264296</v>
       </c>
       <c r="D227">
-        <v>3.065693534877994</v>
+        <v>3.802580478072045</v>
       </c>
       <c r="E227">
-        <v>0.01997856494590208</v>
+        <v>0.01120392917125347</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Parnassius apollo</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AprMay</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C228">
-        <v>96.13058501588412</v>
+        <v>244.9604345363509</v>
       </c>
       <c r="D228">
-        <v>3.134192745452324</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>0.01930589212605501</v>
+        <v>0.9962859255543638</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Plebejus argus</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>AprMayJun</t>
         </is>
       </c>
       <c r="C229">
-        <v>96.2903946426369</v>
+        <v>209.7206251806371</v>
       </c>
       <c r="D229">
-        <v>3.2940023722051</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>0.01782328106034295</v>
+        <v>0.7483486990477788</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>MarAprMay</t>
         </is>
       </c>
       <c r="C230">
-        <v>96.34171675306365</v>
+        <v>78.99129062369424</v>
       </c>
       <c r="D230">
-        <v>3.345324482631852</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>0.01737173521038461</v>
+        <v>0.3177203867923027</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FebMar</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="C231">
-        <v>96.43146174139416</v>
+        <v>80.52544616855833</v>
       </c>
       <c r="D231">
-        <v>3.435069470962361</v>
+        <v>1.534155544864092</v>
       </c>
       <c r="E231">
-        <v>0.01660945278333056</v>
+        <v>0.1475392049497897</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Pyronia tithonus</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dec_pre</t>
+          <t>May</t>
         </is>
       </c>
       <c r="C232">
-        <v>96.60738739234986</v>
+        <v>80.69208332881306</v>
       </c>
       <c r="D232">
-        <v>3.610995121918066</v>
+        <v>1.700792705118815</v>
       </c>
       <c r="E232">
-        <v>0.01521085248842004</v>
+        <v>0.1357446241065313</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Satyrus actaea</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5247,76 +5247,2260 @@
         </is>
       </c>
       <c r="C233">
-        <v>554.4894440292181</v>
+        <v>81.78431861513901</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>2.793027991444774</v>
       </c>
       <c r="E233">
-        <v>0.6506602985322339</v>
+        <v>0.07862248391612006</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Satyrus actaea</t>
+          <t>Plebejus idas</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MayJun</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C234">
-        <v>555.9232192048632</v>
+        <v>82.87515157361067</v>
       </c>
       <c r="D234">
-        <v>1.43377517564511</v>
+        <v>3.883860949916425</v>
       </c>
       <c r="E234">
-        <v>0.3176976369775232</v>
+        <v>0.04556961853194164</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Thymelicus sylvestris</t>
+          <t>Polyommatus amandus</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Oct_preNov_preDec_pre</t>
+          <t>FebMarApr</t>
         </is>
       </c>
       <c r="C235">
-        <v>86.15747968747606</v>
+        <v>37.61362240317067</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>0.4446644905534717</v>
+        <v>0.1010977233894808</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C236">
+        <v>37.79390457242611</v>
+      </c>
+      <c r="D236">
+        <v>0.1802821692554417</v>
+      </c>
+      <c r="E236">
+        <v>0.09238332737873767</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C237">
+        <v>38.33752088692434</v>
+      </c>
+      <c r="D237">
+        <v>0.7238984837536719</v>
+      </c>
+      <c r="E237">
+        <v>0.07039613531006408</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C238">
+        <v>38.82018667407235</v>
+      </c>
+      <c r="D238">
+        <v>1.206564270901687</v>
+      </c>
+      <c r="E238">
+        <v>0.05530180078484131</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C239">
+        <v>39.14178551964106</v>
+      </c>
+      <c r="D239">
+        <v>1.528163116470395</v>
+      </c>
+      <c r="E239">
+        <v>0.04708742824420278</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C240">
+        <v>39.25280490635435</v>
+      </c>
+      <c r="D240">
+        <v>1.639182503183683</v>
+      </c>
+      <c r="E240">
+        <v>0.04454484149160667</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C241">
+        <v>39.87573091924669</v>
+      </c>
+      <c r="D241">
+        <v>2.262108516076026</v>
+      </c>
+      <c r="E241">
+        <v>0.03262351506415644</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C242">
+        <v>39.88880325936179</v>
+      </c>
+      <c r="D242">
+        <v>2.275180856191128</v>
+      </c>
+      <c r="E242">
+        <v>0.03241097756908758</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C243">
+        <v>40.03251022399316</v>
+      </c>
+      <c r="D243">
+        <v>2.418887820822491</v>
+      </c>
+      <c r="E243">
+        <v>0.03016383520300985</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C244">
+        <v>40.24245265239882</v>
+      </c>
+      <c r="D244">
+        <v>2.628830249228152</v>
+      </c>
+      <c r="E244">
+        <v>0.02715802228258982</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C245">
+        <v>40.28192412913327</v>
+      </c>
+      <c r="D245">
+        <v>2.6683017259626</v>
+      </c>
+      <c r="E245">
+        <v>0.02662729305330241</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C246">
+        <v>40.30046426480152</v>
+      </c>
+      <c r="D246">
+        <v>2.686841861630853</v>
+      </c>
+      <c r="E246">
+        <v>0.02638159681035096</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C247">
+        <v>40.30706615441284</v>
+      </c>
+      <c r="D247">
+        <v>2.693443751242178</v>
+      </c>
+      <c r="E247">
+        <v>0.02629465618743734</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C248">
+        <v>40.32497277746489</v>
+      </c>
+      <c r="D248">
+        <v>2.71135037429422</v>
+      </c>
+      <c r="E248">
+        <v>0.02606028271412919</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C249">
+        <v>40.44757653957001</v>
+      </c>
+      <c r="D249">
+        <v>2.833954136399342</v>
+      </c>
+      <c r="E249">
+        <v>0.02451071917391262</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C250">
+        <v>40.4550113894519</v>
+      </c>
+      <c r="D250">
+        <v>2.841388986281238</v>
+      </c>
+      <c r="E250">
+        <v>0.02441977156532479</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Nov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C251">
+        <v>40.50805985853852</v>
+      </c>
+      <c r="D251">
+        <v>2.89443745536785</v>
+      </c>
+      <c r="E251">
+        <v>0.02378057045155434</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C252">
+        <v>40.51250795765303</v>
+      </c>
+      <c r="D252">
+        <v>2.898885554482362</v>
+      </c>
+      <c r="E252">
+        <v>0.02372774005485713</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C253">
+        <v>40.64042466335824</v>
+      </c>
+      <c r="D253">
+        <v>3.026802260187573</v>
+      </c>
+      <c r="E253">
+        <v>0.02225766574800508</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+      <c r="C254">
+        <v>40.69677431890787</v>
+      </c>
+      <c r="D254">
+        <v>3.083151915737204</v>
+      </c>
+      <c r="E254">
+        <v>0.02163931176206745</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C255">
+        <v>40.71658405228589</v>
+      </c>
+      <c r="D255">
+        <v>3.102961649115223</v>
+      </c>
+      <c r="E255">
+        <v>0.02142603524520213</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C256">
+        <v>40.84961664918622</v>
+      </c>
+      <c r="D256">
+        <v>3.235994246015558</v>
+      </c>
+      <c r="E256">
+        <v>0.02004721987148957</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C257">
+        <v>40.92602336740561</v>
+      </c>
+      <c r="D257">
+        <v>3.312400964234939</v>
+      </c>
+      <c r="E257">
+        <v>0.0192957936247468</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C258">
+        <v>41.03472772556057</v>
+      </c>
+      <c r="D258">
+        <v>3.421105322389906</v>
+      </c>
+      <c r="E258">
+        <v>0.01827501718836426</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Nov_preDec_preJan</t>
+        </is>
+      </c>
+      <c r="C259">
+        <v>41.09400045054441</v>
+      </c>
+      <c r="D259">
+        <v>3.480378047373748</v>
+      </c>
+      <c r="E259">
+        <v>0.01774135905672</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C260">
+        <v>41.19675313584357</v>
+      </c>
+      <c r="D260">
+        <v>3.583130732672899</v>
+      </c>
+      <c r="E260">
+        <v>0.01685289144242069</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C261">
+        <v>41.25264120523271</v>
+      </c>
+      <c r="D261">
+        <v>3.63901880206204</v>
+      </c>
+      <c r="E261">
+        <v>0.01638847274579209</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C262">
+        <v>41.2950757494901</v>
+      </c>
+      <c r="D262">
+        <v>3.681453346319429</v>
+      </c>
+      <c r="E262">
+        <v>0.01604441692965611</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C263">
+        <v>41.36556780547458</v>
+      </c>
+      <c r="D263">
+        <v>3.751945402303917</v>
+      </c>
+      <c r="E263">
+        <v>0.01548876474947273</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C264">
+        <v>41.42722889089325</v>
+      </c>
+      <c r="D264">
+        <v>3.813606487722588</v>
+      </c>
+      <c r="E264">
+        <v>0.0150185238644766</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C265">
+        <v>41.44731408566047</v>
+      </c>
+      <c r="D265">
+        <v>3.8336916824898</v>
+      </c>
+      <c r="E265">
+        <v>0.01486845368446787</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C266">
+        <v>41.45050698124083</v>
+      </c>
+      <c r="D266">
+        <v>3.836884578070162</v>
+      </c>
+      <c r="E266">
+        <v>0.01484473591157031</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Polyommatus amandus</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C267">
+        <v>41.4509967049622</v>
+      </c>
+      <c r="D267">
+        <v>3.837374301791534</v>
+      </c>
+      <c r="E267">
+        <v>0.01484110144690266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Polyommatus escheri</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C268">
+        <v>128.6139213107812</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0.3093364409324638</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Polyommatus escheri</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C269">
+        <v>129.0473689207269</v>
+      </c>
+      <c r="D269">
+        <v>0.4334476099457163</v>
+      </c>
+      <c r="E269">
+        <v>0.2490629523547258</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Polyommatus escheri</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C270">
+        <v>129.6122688977352</v>
+      </c>
+      <c r="D270">
+        <v>0.9983475869539973</v>
+      </c>
+      <c r="E270">
+        <v>0.1877771141962458</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C271">
+        <v>66.23538663241754</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0.5489996756667151</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Polyommatus golgus</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C272">
+        <v>67.50566600774499</v>
+      </c>
+      <c r="D272">
+        <v>1.270279375327448</v>
+      </c>
+      <c r="E272">
+        <v>0.2908937741007461</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Polyommatus nivescens</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C273">
+        <v>69.56429678963869</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0.8122225235672991</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C274">
+        <v>89.6120587306395</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0.4757607482504205</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C275">
+        <v>91.66335271800259</v>
+      </c>
+      <c r="D275">
+        <v>2.051293987363081</v>
+      </c>
+      <c r="E275">
+        <v>0.1705908679250252</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Pyronia bathseba</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C276">
+        <v>93.37654995533013</v>
+      </c>
+      <c r="D276">
+        <v>3.76449122469063</v>
+      </c>
+      <c r="E276">
+        <v>0.07243354246352893</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C277">
+        <v>55.32593523018052</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0.2013260461331301</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C278">
+        <v>56.73206627356804</v>
+      </c>
+      <c r="D278">
+        <v>1.406131043387518</v>
+      </c>
+      <c r="E278">
+        <v>0.09966954782171213</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C279">
+        <v>57.23781190998784</v>
+      </c>
+      <c r="D279">
+        <v>1.911876679807321</v>
+      </c>
+      <c r="E279">
+        <v>0.07740004592989524</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C280">
+        <v>57.48998680574299</v>
+      </c>
+      <c r="D280">
+        <v>2.164051575562468</v>
+      </c>
+      <c r="E280">
+        <v>0.06823106271100177</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C281">
+        <v>58.16013838129527</v>
+      </c>
+      <c r="D281">
+        <v>2.83420315111475</v>
+      </c>
+      <c r="E281">
+        <v>0.04880457889882417</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C282">
+        <v>58.31942681462431</v>
+      </c>
+      <c r="D282">
+        <v>2.993491584443788</v>
+      </c>
+      <c r="E282">
+        <v>0.04506833627094702</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C283">
+        <v>58.6096951088992</v>
+      </c>
+      <c r="D283">
+        <v>3.283759878718683</v>
+      </c>
+      <c r="E283">
+        <v>0.03897988619688316</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Pyronia cecilia</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C284">
+        <v>59.16393070575902</v>
+      </c>
+      <c r="D284">
+        <v>3.837995475578502</v>
+      </c>
+      <c r="E284">
+        <v>0.02954539742197479</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C285">
+        <v>92.9963922704318</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0.09252757549496511</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>JulAugSep</t>
+        </is>
+      </c>
+      <c r="C286">
+        <v>94.33639642722741</v>
+      </c>
+      <c r="D286">
+        <v>1.340004156795615</v>
+      </c>
+      <c r="E286">
+        <v>0.04734705565644661</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C287">
+        <v>94.40840067758232</v>
+      </c>
+      <c r="D287">
+        <v>1.412008407150523</v>
+      </c>
+      <c r="E287">
+        <v>0.04567278060112968</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C288">
+        <v>94.67205944747867</v>
+      </c>
+      <c r="D288">
+        <v>1.675667177046876</v>
+      </c>
+      <c r="E288">
+        <v>0.04003175943812799</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C289">
+        <v>94.69482590857744</v>
+      </c>
+      <c r="D289">
+        <v>1.698433638145644</v>
+      </c>
+      <c r="E289">
+        <v>0.03957865249426044</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="C290">
+        <v>94.69688694722043</v>
+      </c>
+      <c r="D290">
+        <v>1.700494676788637</v>
+      </c>
+      <c r="E290">
+        <v>0.03953788693660138</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C291">
+        <v>94.72221555431189</v>
+      </c>
+      <c r="D291">
+        <v>1.725823283880089</v>
+      </c>
+      <c r="E291">
+        <v>0.03904032442630658</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C292">
+        <v>94.77158268266173</v>
+      </c>
+      <c r="D292">
+        <v>1.775190412229932</v>
+      </c>
+      <c r="E292">
+        <v>0.03808846603022389</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>JunJulAug</t>
+        </is>
+      </c>
+      <c r="C293">
+        <v>94.92456934481919</v>
+      </c>
+      <c r="D293">
+        <v>1.928177074387392</v>
+      </c>
+      <c r="E293">
+        <v>0.03528359681063335</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>JulAug</t>
+        </is>
+      </c>
+      <c r="C294">
+        <v>94.94671037033157</v>
+      </c>
+      <c r="D294">
+        <v>1.950318099899775</v>
+      </c>
+      <c r="E294">
+        <v>0.03489514345822759</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>JunJul</t>
+        </is>
+      </c>
+      <c r="C295">
+        <v>94.98333844089508</v>
+      </c>
+      <c r="D295">
+        <v>1.986946170463284</v>
+      </c>
+      <c r="E295">
+        <v>0.03426188899166181</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MayJunJul</t>
+        </is>
+      </c>
+      <c r="C296">
+        <v>95.09818073277927</v>
+      </c>
+      <c r="D296">
+        <v>2.101788462347471</v>
+      </c>
+      <c r="E296">
+        <v>0.03234995022729325</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="C297">
+        <v>95.24000661124086</v>
+      </c>
+      <c r="D297">
+        <v>2.24361434080906</v>
+      </c>
+      <c r="E297">
+        <v>0.03013536934317994</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C298">
+        <v>95.25654595411072</v>
+      </c>
+      <c r="D298">
+        <v>2.260153683678922</v>
+      </c>
+      <c r="E298">
+        <v>0.0298871873463032</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Nov_preDec_preJan</t>
+        </is>
+      </c>
+      <c r="C299">
+        <v>95.37183666942562</v>
+      </c>
+      <c r="D299">
+        <v>2.375444398993821</v>
+      </c>
+      <c r="E299">
+        <v>0.02821304653530202</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Nov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C300">
+        <v>95.42669429811819</v>
+      </c>
+      <c r="D300">
+        <v>2.430302027686395</v>
+      </c>
+      <c r="E300">
+        <v>0.02744971264808922</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C301">
+        <v>95.4530613467188</v>
+      </c>
+      <c r="D301">
+        <v>2.456669076287</v>
+      </c>
+      <c r="E301">
+        <v>0.02709020369887294</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C302">
+        <v>95.47896454670808</v>
+      </c>
+      <c r="D302">
+        <v>2.482572276276287</v>
+      </c>
+      <c r="E302">
+        <v>0.02674160454810735</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C303">
+        <v>95.52114583727368</v>
+      </c>
+      <c r="D303">
+        <v>2.524753566841881</v>
+      </c>
+      <c r="E303">
+        <v>0.02618351279702897</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C304">
+        <v>95.56272983855196</v>
+      </c>
+      <c r="D304">
+        <v>2.566337568120161</v>
+      </c>
+      <c r="E304">
+        <v>0.02564472582177341</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C305">
+        <v>95.60161498237608</v>
+      </c>
+      <c r="D305">
+        <v>2.605222711944279</v>
+      </c>
+      <c r="E305">
+        <v>0.02515094216261662</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>JanFeb</t>
+        </is>
+      </c>
+      <c r="C306">
+        <v>95.60665854119536</v>
+      </c>
+      <c r="D306">
+        <v>2.61026627076356</v>
+      </c>
+      <c r="E306">
+        <v>0.02508759693944727</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C307">
+        <v>95.64205255006571</v>
+      </c>
+      <c r="D307">
+        <v>2.645660279633915</v>
+      </c>
+      <c r="E307">
+        <v>0.02464752706953736</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C308">
+        <v>95.78588374794559</v>
+      </c>
+      <c r="D308">
+        <v>2.789491477513792</v>
+      </c>
+      <c r="E308">
+        <v>0.02293722128764429</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C309">
+        <v>95.82460308619669</v>
+      </c>
+      <c r="D309">
+        <v>2.828210815764891</v>
+      </c>
+      <c r="E309">
+        <v>0.02249743506650575</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C310">
+        <v>95.90625961831569</v>
+      </c>
+      <c r="D310">
+        <v>2.909867347883889</v>
+      </c>
+      <c r="E310">
+        <v>0.02159740221446523</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="C311">
+        <v>96.06208580530979</v>
+      </c>
+      <c r="D311">
+        <v>3.065693534877994</v>
+      </c>
+      <c r="E311">
+        <v>0.01997856494590208</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C312">
+        <v>96.13058501588412</v>
+      </c>
+      <c r="D312">
+        <v>3.134192745452324</v>
+      </c>
+      <c r="E312">
+        <v>0.01930589212605501</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="C313">
+        <v>96.2903946426369</v>
+      </c>
+      <c r="D313">
+        <v>3.2940023722051</v>
+      </c>
+      <c r="E313">
+        <v>0.01782328106034295</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C314">
+        <v>96.34171675306365</v>
+      </c>
+      <c r="D314">
+        <v>3.345324482631852</v>
+      </c>
+      <c r="E314">
+        <v>0.01737173521038461</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C315">
+        <v>96.43146174139416</v>
+      </c>
+      <c r="D315">
+        <v>3.435069470962361</v>
+      </c>
+      <c r="E315">
+        <v>0.01660945278333056</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Pyronia tithonus</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C316">
+        <v>96.60738739234986</v>
+      </c>
+      <c r="D316">
+        <v>3.610995121918066</v>
+      </c>
+      <c r="E316">
+        <v>0.01521085248842004</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="C317">
+        <v>26.59174587542082</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0.4576123835064632</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C318">
+        <v>29.60469107901575</v>
+      </c>
+      <c r="D318">
+        <v>3.012945203594938</v>
+      </c>
+      <c r="E318">
+        <v>0.1014483599206817</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Nov_pre</t>
+        </is>
+      </c>
+      <c r="C319">
+        <v>29.93643585517467</v>
+      </c>
+      <c r="D319">
+        <v>3.344689979753852</v>
+      </c>
+      <c r="E319">
+        <v>0.0859424178127496</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Satyrium esculi</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>AprMay</t>
+        </is>
+      </c>
+      <c r="C320">
+        <v>30.44288927286383</v>
+      </c>
+      <c r="D320">
+        <v>3.85114339744301</v>
+      </c>
+      <c r="E320">
+        <v>0.06671640020523369</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Satyrus actaea</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>AprMayJun</t>
+        </is>
+      </c>
+      <c r="C321">
+        <v>554.4894440292181</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0.6506602985322339</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Satyrus actaea</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>MayJun</t>
+        </is>
+      </c>
+      <c r="C322">
+        <v>555.9232192048632</v>
+      </c>
+      <c r="D322">
+        <v>1.43377517564511</v>
+      </c>
+      <c r="E322">
+        <v>0.3176976369775232</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
           <t>Thymelicus sylvestris</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Oct_preNov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C323">
+        <v>86.15747968747606</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0.4446644905534717</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Thymelicus sylvestris</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="C236">
+      <c r="C324">
         <v>89.67786165231178</v>
       </c>
-      <c r="D236">
+      <c r="D324">
         <v>3.520381964835721</v>
       </c>
-      <c r="E236">
+      <c r="E324">
         <v>0.07648763253621535</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C325">
+        <v>66.36099912081207</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0.1339794280479882</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Oct_pre</t>
+        </is>
+      </c>
+      <c r="C326">
+        <v>66.76191440974662</v>
+      </c>
+      <c r="D326">
+        <v>0.4009152889345557</v>
+      </c>
+      <c r="E326">
+        <v>0.1096428890776534</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Dec_pre</t>
+        </is>
+      </c>
+      <c r="C327">
+        <v>67.59541312264324</v>
+      </c>
+      <c r="D327">
+        <v>1.234414001831169</v>
+      </c>
+      <c r="E327">
+        <v>0.07227507063563987</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>FebMarApr</t>
+        </is>
+      </c>
+      <c r="C328">
+        <v>67.70028218709663</v>
+      </c>
+      <c r="D328">
+        <v>1.339283066284565</v>
+      </c>
+      <c r="E328">
+        <v>0.06858300290675563</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>FebMar</t>
+        </is>
+      </c>
+      <c r="C329">
+        <v>67.72408160419981</v>
+      </c>
+      <c r="D329">
+        <v>1.363082483387743</v>
+      </c>
+      <c r="E329">
+        <v>0.06777172173860201</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>JanFebMar</t>
+        </is>
+      </c>
+      <c r="C330">
+        <v>68.04504287180893</v>
+      </c>
+      <c r="D330">
+        <v>1.684043750996864</v>
+      </c>
+      <c r="E330">
+        <v>0.0577235012127074</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Oct_preNov_pre</t>
+        </is>
+      </c>
+      <c r="C331">
+        <v>68.9161778825839</v>
+      </c>
+      <c r="D331">
+        <v>2.555178761771828</v>
+      </c>
+      <c r="E331">
+        <v>0.03734118545686696</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Nov_preDec_pre</t>
+        </is>
+      </c>
+      <c r="C332">
+        <v>69.35171759385233</v>
+      </c>
+      <c r="D332">
+        <v>2.990718473040261</v>
+      </c>
+      <c r="E332">
+        <v>0.03003390858736647</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MarApr</t>
+        </is>
+      </c>
+      <c r="C333">
+        <v>69.36013716985246</v>
+      </c>
+      <c r="D333">
+        <v>2.999138049040397</v>
+      </c>
+      <c r="E333">
+        <v>0.02990773796152977</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>AugSep</t>
+        </is>
+      </c>
+      <c r="C334">
+        <v>69.4511296491126</v>
+      </c>
+      <c r="D334">
+        <v>3.090130528300534</v>
+      </c>
+      <c r="E334">
+        <v>0.02857753735273721</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Dec_preJanFeb</t>
+        </is>
+      </c>
+      <c r="C335">
+        <v>69.53003963410708</v>
+      </c>
+      <c r="D335">
+        <v>3.169040513295016</v>
+      </c>
+      <c r="E335">
+        <v>0.02747196443292109</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+      <c r="C336">
+        <v>69.62260737057106</v>
+      </c>
+      <c r="D336">
+        <v>3.261608249758993</v>
+      </c>
+      <c r="E336">
+        <v>0.02622943205784695</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Dec_preJan</t>
+        </is>
+      </c>
+      <c r="C337">
+        <v>69.6772819717703</v>
+      </c>
+      <c r="D337">
+        <v>3.316282850958231</v>
+      </c>
+      <c r="E337">
+        <v>0.02552210247982449</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>MarAprMay</t>
+        </is>
+      </c>
+      <c r="C338">
+        <v>69.96163310549821</v>
+      </c>
+      <c r="D338">
+        <v>3.600633984686141</v>
+      </c>
+      <c r="E338">
+        <v>0.02213963129483913</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+      <c r="C339">
+        <v>70.21134442096282</v>
+      </c>
+      <c r="D339">
+        <v>3.850345300150749</v>
+      </c>
+      <c r="E339">
+        <v>0.01954097642735571</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Zerynthia rumina</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Nov_preDec_preJan</t>
+        </is>
+      </c>
+      <c r="C340">
+        <v>70.33185014262519</v>
+      </c>
+      <c r="D340">
+        <v>3.970851021813118</v>
+      </c>
+      <c r="E340">
+        <v>0.01839834574166099</v>
       </c>
     </row>
   </sheetData>
